--- a/tests/templ_versions/043_simple_valid.xlsx
+++ b/tests/templ_versions/043_simple_valid.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dlinke\MyProg_local\gh-nfdi4cat\voc4cat-tool\tests\templ_versions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\MyProg\gh-nfdi4cat\voc4cat-tool\tests\templ_versions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{114AE476-EE85-4850-BF75-F9273E6CB06A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6177AC28-D688-4E10-943E-62D8AE00CF6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="1" r:id="rId1"/>
@@ -139,7 +139,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="103">
   <si>
     <t>Surround Australia Pty Ltd</t>
   </si>
@@ -1805,6 +1805,12 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1841,12 +1847,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2105,7 +2105,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z28"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -2167,11 +2167,11 @@
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
-      <c r="H5" s="21" t="s">
+      <c r="H5" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
     </row>
     <row r="6" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="10"/>
@@ -2193,11 +2193,11 @@
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
-      <c r="H7" s="22" t="s">
+      <c r="H7" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
     </row>
     <row r="8" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
@@ -2207,11 +2207,11 @@
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
-      <c r="H8" s="22" t="s">
+      <c r="H8" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
     </row>
     <row r="9" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
@@ -2221,11 +2221,11 @@
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
-      <c r="H9" s="23" t="s">
+      <c r="H9" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
     </row>
     <row r="10" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="10"/>
@@ -2235,11 +2235,11 @@
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
-      <c r="H10" s="22" t="s">
+      <c r="H10" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
     </row>
     <row r="11" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
@@ -2319,50 +2319,50 @@
     </row>
     <row r="17" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="10"/>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
     </row>
     <row r="18" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="10"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
     </row>
     <row r="19" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="10"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
     </row>
     <row r="20" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="10"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
       <c r="H20" s="10"/>
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
@@ -2381,14 +2381,14 @@
     </row>
     <row r="22" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
@@ -2407,14 +2407,14 @@
     </row>
     <row r="24" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="10"/>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
       <c r="H24" s="10"/>
       <c r="I24" s="10"/>
       <c r="J24" s="10"/>
@@ -2433,14 +2433,14 @@
     </row>
     <row r="26" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8"/>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
@@ -2500,9 +2500,9 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z1072"/>
+  <dimension ref="A1:J1072"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -2544,1818 +2544,1818 @@
     </row>
     <row r="4" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
       <c r="J27" s="1"/>
     </row>
     <row r="28" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
       <c r="J28" s="1"/>
     </row>
     <row r="29" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
       <c r="J30" s="1"/>
     </row>
     <row r="31" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
       <c r="J31" s="1"/>
     </row>
     <row r="32" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="26"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
       <c r="J32" s="1"/>
     </row>
     <row r="33" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="26"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="26"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="28"/>
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="26"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="28"/>
       <c r="J37" s="1"/>
     </row>
     <row r="38" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="26"/>
-      <c r="I38" s="26"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="28"/>
       <c r="J38" s="1"/>
     </row>
     <row r="39" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
-      <c r="B39" s="26"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="26"/>
-      <c r="I39" s="26"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="28"/>
       <c r="J39" s="1"/>
     </row>
     <row r="40" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
-      <c r="B40" s="26"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="26"/>
-      <c r="I40" s="26"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="28"/>
       <c r="J40" s="1"/>
     </row>
     <row r="41" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
-      <c r="B41" s="26"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="26"/>
-      <c r="I41" s="26"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
       <c r="J41" s="1"/>
     </row>
     <row r="42" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
-      <c r="B42" s="26"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="26"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="28"/>
       <c r="J42" s="1"/>
     </row>
     <row r="43" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="26"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="28"/>
       <c r="J43" s="1"/>
     </row>
     <row r="44" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="26"/>
-      <c r="I44" s="26"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
       <c r="J44" s="1"/>
     </row>
     <row r="45" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
-      <c r="B45" s="26"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="26"/>
-      <c r="I45" s="26"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="28"/>
+      <c r="I45" s="28"/>
       <c r="J45" s="1"/>
     </row>
     <row r="46" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
-      <c r="B46" s="26"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="26"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="26"/>
-      <c r="I46" s="26"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="28"/>
       <c r="J46" s="1"/>
     </row>
     <row r="47" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
-      <c r="B47" s="26"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="26"/>
-      <c r="G47" s="26"/>
-      <c r="H47" s="26"/>
-      <c r="I47" s="26"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="28"/>
       <c r="J47" s="1"/>
     </row>
     <row r="48" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
-      <c r="B48" s="26"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="26"/>
-      <c r="G48" s="26"/>
-      <c r="H48" s="26"/>
-      <c r="I48" s="26"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="28"/>
+      <c r="I48" s="28"/>
       <c r="J48" s="1"/>
     </row>
     <row r="49" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
-      <c r="B49" s="26"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="26"/>
-      <c r="E49" s="26"/>
-      <c r="F49" s="26"/>
-      <c r="G49" s="26"/>
-      <c r="H49" s="26"/>
-      <c r="I49" s="26"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="28"/>
+      <c r="I49" s="28"/>
       <c r="J49" s="1"/>
     </row>
     <row r="50" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
-      <c r="B50" s="26"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="26"/>
-      <c r="G50" s="26"/>
-      <c r="H50" s="26"/>
-      <c r="I50" s="26"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="28"/>
       <c r="J50" s="1"/>
     </row>
     <row r="51" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
-      <c r="B51" s="26"/>
-      <c r="C51" s="26"/>
-      <c r="D51" s="26"/>
-      <c r="E51" s="26"/>
-      <c r="F51" s="26"/>
-      <c r="G51" s="26"/>
-      <c r="H51" s="26"/>
-      <c r="I51" s="26"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="28"/>
+      <c r="G51" s="28"/>
+      <c r="H51" s="28"/>
+      <c r="I51" s="28"/>
       <c r="J51" s="1"/>
     </row>
     <row r="52" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
-      <c r="B52" s="26"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="26"/>
-      <c r="E52" s="26"/>
-      <c r="F52" s="26"/>
-      <c r="G52" s="26"/>
-      <c r="H52" s="26"/>
-      <c r="I52" s="26"/>
+      <c r="B52" s="28"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="28"/>
       <c r="J52" s="1"/>
     </row>
     <row r="53" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
-      <c r="B53" s="26"/>
-      <c r="C53" s="26"/>
-      <c r="D53" s="26"/>
-      <c r="E53" s="26"/>
-      <c r="F53" s="26"/>
-      <c r="G53" s="26"/>
-      <c r="H53" s="26"/>
-      <c r="I53" s="26"/>
+      <c r="B53" s="28"/>
+      <c r="C53" s="28"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="28"/>
       <c r="J53" s="1"/>
     </row>
     <row r="54" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
-      <c r="B54" s="26"/>
-      <c r="C54" s="26"/>
-      <c r="D54" s="26"/>
-      <c r="E54" s="26"/>
-      <c r="F54" s="26"/>
-      <c r="G54" s="26"/>
-      <c r="H54" s="26"/>
-      <c r="I54" s="26"/>
+      <c r="B54" s="28"/>
+      <c r="C54" s="28"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="28"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="28"/>
       <c r="J54" s="1"/>
     </row>
     <row r="55" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
-      <c r="B55" s="26"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="26"/>
-      <c r="E55" s="26"/>
-      <c r="F55" s="26"/>
-      <c r="G55" s="26"/>
-      <c r="H55" s="26"/>
-      <c r="I55" s="26"/>
+      <c r="B55" s="28"/>
+      <c r="C55" s="28"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="28"/>
+      <c r="H55" s="28"/>
+      <c r="I55" s="28"/>
       <c r="J55" s="1"/>
     </row>
     <row r="56" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
-      <c r="B56" s="26"/>
-      <c r="C56" s="26"/>
-      <c r="D56" s="26"/>
-      <c r="E56" s="26"/>
-      <c r="F56" s="26"/>
-      <c r="G56" s="26"/>
-      <c r="H56" s="26"/>
-      <c r="I56" s="26"/>
+      <c r="B56" s="28"/>
+      <c r="C56" s="28"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="28"/>
+      <c r="H56" s="28"/>
+      <c r="I56" s="28"/>
       <c r="J56" s="1"/>
     </row>
     <row r="57" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
-      <c r="B57" s="26"/>
-      <c r="C57" s="26"/>
-      <c r="D57" s="26"/>
-      <c r="E57" s="26"/>
-      <c r="F57" s="26"/>
-      <c r="G57" s="26"/>
-      <c r="H57" s="26"/>
-      <c r="I57" s="26"/>
+      <c r="B57" s="28"/>
+      <c r="C57" s="28"/>
+      <c r="D57" s="28"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="28"/>
+      <c r="G57" s="28"/>
+      <c r="H57" s="28"/>
+      <c r="I57" s="28"/>
       <c r="J57" s="1"/>
     </row>
     <row r="58" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
-      <c r="B58" s="26"/>
-      <c r="C58" s="26"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="26"/>
-      <c r="F58" s="26"/>
-      <c r="G58" s="26"/>
-      <c r="H58" s="26"/>
-      <c r="I58" s="26"/>
+      <c r="B58" s="28"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="28"/>
+      <c r="G58" s="28"/>
+      <c r="H58" s="28"/>
+      <c r="I58" s="28"/>
       <c r="J58" s="1"/>
     </row>
     <row r="59" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
-      <c r="B59" s="26"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="26"/>
-      <c r="E59" s="26"/>
-      <c r="F59" s="26"/>
-      <c r="G59" s="26"/>
-      <c r="H59" s="26"/>
-      <c r="I59" s="26"/>
+      <c r="B59" s="28"/>
+      <c r="C59" s="28"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="28"/>
+      <c r="I59" s="28"/>
       <c r="J59" s="1"/>
     </row>
     <row r="60" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
-      <c r="B60" s="26"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="26"/>
-      <c r="G60" s="26"/>
-      <c r="H60" s="26"/>
-      <c r="I60" s="26"/>
+      <c r="B60" s="28"/>
+      <c r="C60" s="28"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="28"/>
+      <c r="G60" s="28"/>
+      <c r="H60" s="28"/>
+      <c r="I60" s="28"/>
       <c r="J60" s="1"/>
     </row>
     <row r="61" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
-      <c r="B61" s="26"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="26"/>
-      <c r="E61" s="26"/>
-      <c r="F61" s="26"/>
-      <c r="G61" s="26"/>
-      <c r="H61" s="26"/>
-      <c r="I61" s="26"/>
+      <c r="B61" s="28"/>
+      <c r="C61" s="28"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="28"/>
+      <c r="G61" s="28"/>
+      <c r="H61" s="28"/>
+      <c r="I61" s="28"/>
       <c r="J61" s="1"/>
     </row>
     <row r="62" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
-      <c r="B62" s="26"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="26"/>
-      <c r="E62" s="26"/>
-      <c r="F62" s="26"/>
-      <c r="G62" s="26"/>
-      <c r="H62" s="26"/>
-      <c r="I62" s="26"/>
+      <c r="B62" s="28"/>
+      <c r="C62" s="28"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="28"/>
       <c r="J62" s="1"/>
     </row>
     <row r="63" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
-      <c r="B63" s="26"/>
-      <c r="C63" s="26"/>
-      <c r="D63" s="26"/>
-      <c r="E63" s="26"/>
-      <c r="F63" s="26"/>
-      <c r="G63" s="26"/>
-      <c r="H63" s="26"/>
-      <c r="I63" s="26"/>
+      <c r="B63" s="28"/>
+      <c r="C63" s="28"/>
+      <c r="D63" s="28"/>
+      <c r="E63" s="28"/>
+      <c r="F63" s="28"/>
+      <c r="G63" s="28"/>
+      <c r="H63" s="28"/>
+      <c r="I63" s="28"/>
       <c r="J63" s="1"/>
     </row>
     <row r="64" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
-      <c r="B64" s="26"/>
-      <c r="C64" s="26"/>
-      <c r="D64" s="26"/>
-      <c r="E64" s="26"/>
-      <c r="F64" s="26"/>
-      <c r="G64" s="26"/>
-      <c r="H64" s="26"/>
-      <c r="I64" s="26"/>
+      <c r="B64" s="28"/>
+      <c r="C64" s="28"/>
+      <c r="D64" s="28"/>
+      <c r="E64" s="28"/>
+      <c r="F64" s="28"/>
+      <c r="G64" s="28"/>
+      <c r="H64" s="28"/>
+      <c r="I64" s="28"/>
       <c r="J64" s="1"/>
     </row>
     <row r="65" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
-      <c r="B65" s="26"/>
-      <c r="C65" s="26"/>
-      <c r="D65" s="26"/>
-      <c r="E65" s="26"/>
-      <c r="F65" s="26"/>
-      <c r="G65" s="26"/>
-      <c r="H65" s="26"/>
-      <c r="I65" s="26"/>
+      <c r="B65" s="28"/>
+      <c r="C65" s="28"/>
+      <c r="D65" s="28"/>
+      <c r="E65" s="28"/>
+      <c r="F65" s="28"/>
+      <c r="G65" s="28"/>
+      <c r="H65" s="28"/>
+      <c r="I65" s="28"/>
       <c r="J65" s="1"/>
     </row>
     <row r="66" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
-      <c r="B66" s="26"/>
-      <c r="C66" s="26"/>
-      <c r="D66" s="26"/>
-      <c r="E66" s="26"/>
-      <c r="F66" s="26"/>
-      <c r="G66" s="26"/>
-      <c r="H66" s="26"/>
-      <c r="I66" s="26"/>
+      <c r="B66" s="28"/>
+      <c r="C66" s="28"/>
+      <c r="D66" s="28"/>
+      <c r="E66" s="28"/>
+      <c r="F66" s="28"/>
+      <c r="G66" s="28"/>
+      <c r="H66" s="28"/>
+      <c r="I66" s="28"/>
       <c r="J66" s="1"/>
     </row>
     <row r="67" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
-      <c r="B67" s="26"/>
-      <c r="C67" s="26"/>
-      <c r="D67" s="26"/>
-      <c r="E67" s="26"/>
-      <c r="F67" s="26"/>
-      <c r="G67" s="26"/>
-      <c r="H67" s="26"/>
-      <c r="I67" s="26"/>
+      <c r="B67" s="28"/>
+      <c r="C67" s="28"/>
+      <c r="D67" s="28"/>
+      <c r="E67" s="28"/>
+      <c r="F67" s="28"/>
+      <c r="G67" s="28"/>
+      <c r="H67" s="28"/>
+      <c r="I67" s="28"/>
       <c r="J67" s="1"/>
     </row>
     <row r="68" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
-      <c r="B68" s="26"/>
-      <c r="C68" s="26"/>
-      <c r="D68" s="26"/>
-      <c r="E68" s="26"/>
-      <c r="F68" s="26"/>
-      <c r="G68" s="26"/>
-      <c r="H68" s="26"/>
-      <c r="I68" s="26"/>
+      <c r="B68" s="28"/>
+      <c r="C68" s="28"/>
+      <c r="D68" s="28"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="28"/>
+      <c r="H68" s="28"/>
+      <c r="I68" s="28"/>
       <c r="J68" s="1"/>
     </row>
     <row r="69" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
-      <c r="B69" s="26"/>
-      <c r="C69" s="26"/>
-      <c r="D69" s="26"/>
-      <c r="E69" s="26"/>
-      <c r="F69" s="26"/>
-      <c r="G69" s="26"/>
-      <c r="H69" s="26"/>
-      <c r="I69" s="26"/>
+      <c r="B69" s="28"/>
+      <c r="C69" s="28"/>
+      <c r="D69" s="28"/>
+      <c r="E69" s="28"/>
+      <c r="F69" s="28"/>
+      <c r="G69" s="28"/>
+      <c r="H69" s="28"/>
+      <c r="I69" s="28"/>
       <c r="J69" s="1"/>
     </row>
     <row r="70" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
-      <c r="B70" s="26"/>
-      <c r="C70" s="26"/>
-      <c r="D70" s="26"/>
-      <c r="E70" s="26"/>
-      <c r="F70" s="26"/>
-      <c r="G70" s="26"/>
-      <c r="H70" s="26"/>
-      <c r="I70" s="26"/>
+      <c r="B70" s="28"/>
+      <c r="C70" s="28"/>
+      <c r="D70" s="28"/>
+      <c r="E70" s="28"/>
+      <c r="F70" s="28"/>
+      <c r="G70" s="28"/>
+      <c r="H70" s="28"/>
+      <c r="I70" s="28"/>
       <c r="J70" s="1"/>
     </row>
     <row r="71" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
-      <c r="B71" s="26"/>
-      <c r="C71" s="26"/>
-      <c r="D71" s="26"/>
-      <c r="E71" s="26"/>
-      <c r="F71" s="26"/>
-      <c r="G71" s="26"/>
-      <c r="H71" s="26"/>
-      <c r="I71" s="26"/>
+      <c r="B71" s="28"/>
+      <c r="C71" s="28"/>
+      <c r="D71" s="28"/>
+      <c r="E71" s="28"/>
+      <c r="F71" s="28"/>
+      <c r="G71" s="28"/>
+      <c r="H71" s="28"/>
+      <c r="I71" s="28"/>
       <c r="J71" s="1"/>
     </row>
     <row r="72" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
-      <c r="B72" s="26"/>
-      <c r="C72" s="26"/>
-      <c r="D72" s="26"/>
-      <c r="E72" s="26"/>
-      <c r="F72" s="26"/>
-      <c r="G72" s="26"/>
-      <c r="H72" s="26"/>
-      <c r="I72" s="26"/>
+      <c r="B72" s="28"/>
+      <c r="C72" s="28"/>
+      <c r="D72" s="28"/>
+      <c r="E72" s="28"/>
+      <c r="F72" s="28"/>
+      <c r="G72" s="28"/>
+      <c r="H72" s="28"/>
+      <c r="I72" s="28"/>
       <c r="J72" s="1"/>
     </row>
     <row r="73" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
-      <c r="B73" s="26"/>
-      <c r="C73" s="26"/>
-      <c r="D73" s="26"/>
-      <c r="E73" s="26"/>
-      <c r="F73" s="26"/>
-      <c r="G73" s="26"/>
-      <c r="H73" s="26"/>
-      <c r="I73" s="26"/>
+      <c r="B73" s="28"/>
+      <c r="C73" s="28"/>
+      <c r="D73" s="28"/>
+      <c r="E73" s="28"/>
+      <c r="F73" s="28"/>
+      <c r="G73" s="28"/>
+      <c r="H73" s="28"/>
+      <c r="I73" s="28"/>
       <c r="J73" s="1"/>
     </row>
     <row r="74" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
-      <c r="B74" s="26"/>
-      <c r="C74" s="26"/>
-      <c r="D74" s="26"/>
-      <c r="E74" s="26"/>
-      <c r="F74" s="26"/>
-      <c r="G74" s="26"/>
-      <c r="H74" s="26"/>
-      <c r="I74" s="26"/>
+      <c r="B74" s="28"/>
+      <c r="C74" s="28"/>
+      <c r="D74" s="28"/>
+      <c r="E74" s="28"/>
+      <c r="F74" s="28"/>
+      <c r="G74" s="28"/>
+      <c r="H74" s="28"/>
+      <c r="I74" s="28"/>
       <c r="J74" s="1"/>
     </row>
     <row r="75" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
-      <c r="B75" s="26"/>
-      <c r="C75" s="26"/>
-      <c r="D75" s="26"/>
-      <c r="E75" s="26"/>
-      <c r="F75" s="26"/>
-      <c r="G75" s="26"/>
-      <c r="H75" s="26"/>
-      <c r="I75" s="26"/>
+      <c r="B75" s="28"/>
+      <c r="C75" s="28"/>
+      <c r="D75" s="28"/>
+      <c r="E75" s="28"/>
+      <c r="F75" s="28"/>
+      <c r="G75" s="28"/>
+      <c r="H75" s="28"/>
+      <c r="I75" s="28"/>
       <c r="J75" s="1"/>
     </row>
     <row r="76" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
-      <c r="B76" s="26"/>
-      <c r="C76" s="26"/>
-      <c r="D76" s="26"/>
-      <c r="E76" s="26"/>
-      <c r="F76" s="26"/>
-      <c r="G76" s="26"/>
-      <c r="H76" s="26"/>
-      <c r="I76" s="26"/>
+      <c r="B76" s="28"/>
+      <c r="C76" s="28"/>
+      <c r="D76" s="28"/>
+      <c r="E76" s="28"/>
+      <c r="F76" s="28"/>
+      <c r="G76" s="28"/>
+      <c r="H76" s="28"/>
+      <c r="I76" s="28"/>
       <c r="J76" s="1"/>
     </row>
     <row r="77" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
-      <c r="B77" s="26"/>
-      <c r="C77" s="26"/>
-      <c r="D77" s="26"/>
-      <c r="E77" s="26"/>
-      <c r="F77" s="26"/>
-      <c r="G77" s="26"/>
-      <c r="H77" s="26"/>
-      <c r="I77" s="26"/>
+      <c r="B77" s="28"/>
+      <c r="C77" s="28"/>
+      <c r="D77" s="28"/>
+      <c r="E77" s="28"/>
+      <c r="F77" s="28"/>
+      <c r="G77" s="28"/>
+      <c r="H77" s="28"/>
+      <c r="I77" s="28"/>
       <c r="J77" s="1"/>
     </row>
     <row r="78" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
-      <c r="B78" s="26"/>
-      <c r="C78" s="26"/>
-      <c r="D78" s="26"/>
-      <c r="E78" s="26"/>
-      <c r="F78" s="26"/>
-      <c r="G78" s="26"/>
-      <c r="H78" s="26"/>
-      <c r="I78" s="26"/>
+      <c r="B78" s="28"/>
+      <c r="C78" s="28"/>
+      <c r="D78" s="28"/>
+      <c r="E78" s="28"/>
+      <c r="F78" s="28"/>
+      <c r="G78" s="28"/>
+      <c r="H78" s="28"/>
+      <c r="I78" s="28"/>
       <c r="J78" s="1"/>
     </row>
     <row r="79" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
-      <c r="B79" s="26"/>
-      <c r="C79" s="26"/>
-      <c r="D79" s="26"/>
-      <c r="E79" s="26"/>
-      <c r="F79" s="26"/>
-      <c r="G79" s="26"/>
-      <c r="H79" s="26"/>
-      <c r="I79" s="26"/>
+      <c r="B79" s="28"/>
+      <c r="C79" s="28"/>
+      <c r="D79" s="28"/>
+      <c r="E79" s="28"/>
+      <c r="F79" s="28"/>
+      <c r="G79" s="28"/>
+      <c r="H79" s="28"/>
+      <c r="I79" s="28"/>
       <c r="J79" s="1"/>
     </row>
     <row r="80" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
-      <c r="B80" s="26"/>
-      <c r="C80" s="26"/>
-      <c r="D80" s="26"/>
-      <c r="E80" s="26"/>
-      <c r="F80" s="26"/>
-      <c r="G80" s="26"/>
-      <c r="H80" s="26"/>
-      <c r="I80" s="26"/>
+      <c r="B80" s="28"/>
+      <c r="C80" s="28"/>
+      <c r="D80" s="28"/>
+      <c r="E80" s="28"/>
+      <c r="F80" s="28"/>
+      <c r="G80" s="28"/>
+      <c r="H80" s="28"/>
+      <c r="I80" s="28"/>
       <c r="J80" s="1"/>
     </row>
     <row r="81" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
-      <c r="B81" s="26"/>
-      <c r="C81" s="26"/>
-      <c r="D81" s="26"/>
-      <c r="E81" s="26"/>
-      <c r="F81" s="26"/>
-      <c r="G81" s="26"/>
-      <c r="H81" s="26"/>
-      <c r="I81" s="26"/>
+      <c r="B81" s="28"/>
+      <c r="C81" s="28"/>
+      <c r="D81" s="28"/>
+      <c r="E81" s="28"/>
+      <c r="F81" s="28"/>
+      <c r="G81" s="28"/>
+      <c r="H81" s="28"/>
+      <c r="I81" s="28"/>
       <c r="J81" s="1"/>
     </row>
     <row r="82" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
-      <c r="B82" s="26"/>
-      <c r="C82" s="26"/>
-      <c r="D82" s="26"/>
-      <c r="E82" s="26"/>
-      <c r="F82" s="26"/>
-      <c r="G82" s="26"/>
-      <c r="H82" s="26"/>
-      <c r="I82" s="26"/>
+      <c r="B82" s="28"/>
+      <c r="C82" s="28"/>
+      <c r="D82" s="28"/>
+      <c r="E82" s="28"/>
+      <c r="F82" s="28"/>
+      <c r="G82" s="28"/>
+      <c r="H82" s="28"/>
+      <c r="I82" s="28"/>
       <c r="J82" s="1"/>
     </row>
     <row r="83" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
-      <c r="B83" s="26"/>
-      <c r="C83" s="26"/>
-      <c r="D83" s="26"/>
-      <c r="E83" s="26"/>
-      <c r="F83" s="26"/>
-      <c r="G83" s="26"/>
-      <c r="H83" s="26"/>
-      <c r="I83" s="26"/>
+      <c r="B83" s="28"/>
+      <c r="C83" s="28"/>
+      <c r="D83" s="28"/>
+      <c r="E83" s="28"/>
+      <c r="F83" s="28"/>
+      <c r="G83" s="28"/>
+      <c r="H83" s="28"/>
+      <c r="I83" s="28"/>
       <c r="J83" s="1"/>
     </row>
     <row r="84" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
-      <c r="B84" s="26"/>
-      <c r="C84" s="26"/>
-      <c r="D84" s="26"/>
-      <c r="E84" s="26"/>
-      <c r="F84" s="26"/>
-      <c r="G84" s="26"/>
-      <c r="H84" s="26"/>
-      <c r="I84" s="26"/>
+      <c r="B84" s="28"/>
+      <c r="C84" s="28"/>
+      <c r="D84" s="28"/>
+      <c r="E84" s="28"/>
+      <c r="F84" s="28"/>
+      <c r="G84" s="28"/>
+      <c r="H84" s="28"/>
+      <c r="I84" s="28"/>
       <c r="J84" s="1"/>
     </row>
     <row r="85" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
-      <c r="B85" s="26"/>
-      <c r="C85" s="26"/>
-      <c r="D85" s="26"/>
-      <c r="E85" s="26"/>
-      <c r="F85" s="26"/>
-      <c r="G85" s="26"/>
-      <c r="H85" s="26"/>
-      <c r="I85" s="26"/>
+      <c r="B85" s="28"/>
+      <c r="C85" s="28"/>
+      <c r="D85" s="28"/>
+      <c r="E85" s="28"/>
+      <c r="F85" s="28"/>
+      <c r="G85" s="28"/>
+      <c r="H85" s="28"/>
+      <c r="I85" s="28"/>
       <c r="J85" s="1"/>
     </row>
     <row r="86" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
-      <c r="B86" s="26"/>
-      <c r="C86" s="26"/>
-      <c r="D86" s="26"/>
-      <c r="E86" s="26"/>
-      <c r="F86" s="26"/>
-      <c r="G86" s="26"/>
-      <c r="H86" s="26"/>
-      <c r="I86" s="26"/>
+      <c r="B86" s="28"/>
+      <c r="C86" s="28"/>
+      <c r="D86" s="28"/>
+      <c r="E86" s="28"/>
+      <c r="F86" s="28"/>
+      <c r="G86" s="28"/>
+      <c r="H86" s="28"/>
+      <c r="I86" s="28"/>
       <c r="J86" s="1"/>
     </row>
     <row r="87" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
-      <c r="B87" s="26"/>
-      <c r="C87" s="26"/>
-      <c r="D87" s="26"/>
-      <c r="E87" s="26"/>
-      <c r="F87" s="26"/>
-      <c r="G87" s="26"/>
-      <c r="H87" s="26"/>
-      <c r="I87" s="26"/>
+      <c r="B87" s="28"/>
+      <c r="C87" s="28"/>
+      <c r="D87" s="28"/>
+      <c r="E87" s="28"/>
+      <c r="F87" s="28"/>
+      <c r="G87" s="28"/>
+      <c r="H87" s="28"/>
+      <c r="I87" s="28"/>
       <c r="J87" s="1"/>
     </row>
     <row r="88" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
-      <c r="B88" s="26"/>
-      <c r="C88" s="26"/>
-      <c r="D88" s="26"/>
-      <c r="E88" s="26"/>
-      <c r="F88" s="26"/>
-      <c r="G88" s="26"/>
-      <c r="H88" s="26"/>
-      <c r="I88" s="26"/>
+      <c r="B88" s="28"/>
+      <c r="C88" s="28"/>
+      <c r="D88" s="28"/>
+      <c r="E88" s="28"/>
+      <c r="F88" s="28"/>
+      <c r="G88" s="28"/>
+      <c r="H88" s="28"/>
+      <c r="I88" s="28"/>
       <c r="J88" s="1"/>
     </row>
     <row r="89" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
-      <c r="B89" s="26"/>
-      <c r="C89" s="26"/>
-      <c r="D89" s="26"/>
-      <c r="E89" s="26"/>
-      <c r="F89" s="26"/>
-      <c r="G89" s="26"/>
-      <c r="H89" s="26"/>
-      <c r="I89" s="26"/>
+      <c r="B89" s="28"/>
+      <c r="C89" s="28"/>
+      <c r="D89" s="28"/>
+      <c r="E89" s="28"/>
+      <c r="F89" s="28"/>
+      <c r="G89" s="28"/>
+      <c r="H89" s="28"/>
+      <c r="I89" s="28"/>
       <c r="J89" s="1"/>
     </row>
     <row r="90" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
-      <c r="B90" s="26"/>
-      <c r="C90" s="26"/>
-      <c r="D90" s="26"/>
-      <c r="E90" s="26"/>
-      <c r="F90" s="26"/>
-      <c r="G90" s="26"/>
-      <c r="H90" s="26"/>
-      <c r="I90" s="26"/>
+      <c r="B90" s="28"/>
+      <c r="C90" s="28"/>
+      <c r="D90" s="28"/>
+      <c r="E90" s="28"/>
+      <c r="F90" s="28"/>
+      <c r="G90" s="28"/>
+      <c r="H90" s="28"/>
+      <c r="I90" s="28"/>
       <c r="J90" s="1"/>
     </row>
     <row r="91" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
-      <c r="B91" s="26"/>
-      <c r="C91" s="26"/>
-      <c r="D91" s="26"/>
-      <c r="E91" s="26"/>
-      <c r="F91" s="26"/>
-      <c r="G91" s="26"/>
-      <c r="H91" s="26"/>
-      <c r="I91" s="26"/>
+      <c r="B91" s="28"/>
+      <c r="C91" s="28"/>
+      <c r="D91" s="28"/>
+      <c r="E91" s="28"/>
+      <c r="F91" s="28"/>
+      <c r="G91" s="28"/>
+      <c r="H91" s="28"/>
+      <c r="I91" s="28"/>
       <c r="J91" s="1"/>
     </row>
     <row r="92" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
-      <c r="B92" s="26"/>
-      <c r="C92" s="26"/>
-      <c r="D92" s="26"/>
-      <c r="E92" s="26"/>
-      <c r="F92" s="26"/>
-      <c r="G92" s="26"/>
-      <c r="H92" s="26"/>
-      <c r="I92" s="26"/>
+      <c r="B92" s="28"/>
+      <c r="C92" s="28"/>
+      <c r="D92" s="28"/>
+      <c r="E92" s="28"/>
+      <c r="F92" s="28"/>
+      <c r="G92" s="28"/>
+      <c r="H92" s="28"/>
+      <c r="I92" s="28"/>
       <c r="J92" s="1"/>
     </row>
     <row r="93" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
-      <c r="B93" s="26"/>
-      <c r="C93" s="26"/>
-      <c r="D93" s="26"/>
-      <c r="E93" s="26"/>
-      <c r="F93" s="26"/>
-      <c r="G93" s="26"/>
-      <c r="H93" s="26"/>
-      <c r="I93" s="26"/>
+      <c r="B93" s="28"/>
+      <c r="C93" s="28"/>
+      <c r="D93" s="28"/>
+      <c r="E93" s="28"/>
+      <c r="F93" s="28"/>
+      <c r="G93" s="28"/>
+      <c r="H93" s="28"/>
+      <c r="I93" s="28"/>
       <c r="J93" s="1"/>
     </row>
     <row r="94" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
-      <c r="B94" s="26"/>
-      <c r="C94" s="26"/>
-      <c r="D94" s="26"/>
-      <c r="E94" s="26"/>
-      <c r="F94" s="26"/>
-      <c r="G94" s="26"/>
-      <c r="H94" s="26"/>
-      <c r="I94" s="26"/>
+      <c r="B94" s="28"/>
+      <c r="C94" s="28"/>
+      <c r="D94" s="28"/>
+      <c r="E94" s="28"/>
+      <c r="F94" s="28"/>
+      <c r="G94" s="28"/>
+      <c r="H94" s="28"/>
+      <c r="I94" s="28"/>
       <c r="J94" s="1"/>
     </row>
     <row r="95" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
-      <c r="B95" s="26"/>
-      <c r="C95" s="26"/>
-      <c r="D95" s="26"/>
-      <c r="E95" s="26"/>
-      <c r="F95" s="26"/>
-      <c r="G95" s="26"/>
-      <c r="H95" s="26"/>
-      <c r="I95" s="26"/>
+      <c r="B95" s="28"/>
+      <c r="C95" s="28"/>
+      <c r="D95" s="28"/>
+      <c r="E95" s="28"/>
+      <c r="F95" s="28"/>
+      <c r="G95" s="28"/>
+      <c r="H95" s="28"/>
+      <c r="I95" s="28"/>
       <c r="J95" s="1"/>
     </row>
     <row r="96" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
-      <c r="B96" s="26"/>
-      <c r="C96" s="26"/>
-      <c r="D96" s="26"/>
-      <c r="E96" s="26"/>
-      <c r="F96" s="26"/>
-      <c r="G96" s="26"/>
-      <c r="H96" s="26"/>
-      <c r="I96" s="26"/>
+      <c r="B96" s="28"/>
+      <c r="C96" s="28"/>
+      <c r="D96" s="28"/>
+      <c r="E96" s="28"/>
+      <c r="F96" s="28"/>
+      <c r="G96" s="28"/>
+      <c r="H96" s="28"/>
+      <c r="I96" s="28"/>
       <c r="J96" s="1"/>
     </row>
     <row r="97" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
-      <c r="B97" s="26"/>
-      <c r="C97" s="26"/>
-      <c r="D97" s="26"/>
-      <c r="E97" s="26"/>
-      <c r="F97" s="26"/>
-      <c r="G97" s="26"/>
-      <c r="H97" s="26"/>
-      <c r="I97" s="26"/>
+      <c r="B97" s="28"/>
+      <c r="C97" s="28"/>
+      <c r="D97" s="28"/>
+      <c r="E97" s="28"/>
+      <c r="F97" s="28"/>
+      <c r="G97" s="28"/>
+      <c r="H97" s="28"/>
+      <c r="I97" s="28"/>
       <c r="J97" s="1"/>
     </row>
     <row r="98" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
-      <c r="B98" s="26"/>
-      <c r="C98" s="26"/>
-      <c r="D98" s="26"/>
-      <c r="E98" s="26"/>
-      <c r="F98" s="26"/>
-      <c r="G98" s="26"/>
-      <c r="H98" s="26"/>
-      <c r="I98" s="26"/>
+      <c r="B98" s="28"/>
+      <c r="C98" s="28"/>
+      <c r="D98" s="28"/>
+      <c r="E98" s="28"/>
+      <c r="F98" s="28"/>
+      <c r="G98" s="28"/>
+      <c r="H98" s="28"/>
+      <c r="I98" s="28"/>
       <c r="J98" s="1"/>
     </row>
     <row r="99" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
-      <c r="B99" s="26"/>
-      <c r="C99" s="26"/>
-      <c r="D99" s="26"/>
-      <c r="E99" s="26"/>
-      <c r="F99" s="26"/>
-      <c r="G99" s="26"/>
-      <c r="H99" s="26"/>
-      <c r="I99" s="26"/>
+      <c r="B99" s="28"/>
+      <c r="C99" s="28"/>
+      <c r="D99" s="28"/>
+      <c r="E99" s="28"/>
+      <c r="F99" s="28"/>
+      <c r="G99" s="28"/>
+      <c r="H99" s="28"/>
+      <c r="I99" s="28"/>
       <c r="J99" s="1"/>
     </row>
     <row r="100" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
-      <c r="B100" s="26"/>
-      <c r="C100" s="26"/>
-      <c r="D100" s="26"/>
-      <c r="E100" s="26"/>
-      <c r="F100" s="26"/>
-      <c r="G100" s="26"/>
-      <c r="H100" s="26"/>
-      <c r="I100" s="26"/>
+      <c r="B100" s="28"/>
+      <c r="C100" s="28"/>
+      <c r="D100" s="28"/>
+      <c r="E100" s="28"/>
+      <c r="F100" s="28"/>
+      <c r="G100" s="28"/>
+      <c r="H100" s="28"/>
+      <c r="I100" s="28"/>
       <c r="J100" s="1"/>
     </row>
     <row r="101" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
-      <c r="B101" s="26"/>
-      <c r="C101" s="26"/>
-      <c r="D101" s="26"/>
-      <c r="E101" s="26"/>
-      <c r="F101" s="26"/>
-      <c r="G101" s="26"/>
-      <c r="H101" s="26"/>
-      <c r="I101" s="26"/>
+      <c r="B101" s="28"/>
+      <c r="C101" s="28"/>
+      <c r="D101" s="28"/>
+      <c r="E101" s="28"/>
+      <c r="F101" s="28"/>
+      <c r="G101" s="28"/>
+      <c r="H101" s="28"/>
+      <c r="I101" s="28"/>
       <c r="J101" s="1"/>
     </row>
     <row r="102" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
-      <c r="B102" s="26"/>
-      <c r="C102" s="26"/>
-      <c r="D102" s="26"/>
-      <c r="E102" s="26"/>
-      <c r="F102" s="26"/>
-      <c r="G102" s="26"/>
-      <c r="H102" s="26"/>
-      <c r="I102" s="26"/>
+      <c r="B102" s="28"/>
+      <c r="C102" s="28"/>
+      <c r="D102" s="28"/>
+      <c r="E102" s="28"/>
+      <c r="F102" s="28"/>
+      <c r="G102" s="28"/>
+      <c r="H102" s="28"/>
+      <c r="I102" s="28"/>
       <c r="J102" s="1"/>
     </row>
     <row r="103" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
-      <c r="B103" s="26"/>
-      <c r="C103" s="26"/>
-      <c r="D103" s="26"/>
-      <c r="E103" s="26"/>
-      <c r="F103" s="26"/>
-      <c r="G103" s="26"/>
-      <c r="H103" s="26"/>
-      <c r="I103" s="26"/>
+      <c r="B103" s="28"/>
+      <c r="C103" s="28"/>
+      <c r="D103" s="28"/>
+      <c r="E103" s="28"/>
+      <c r="F103" s="28"/>
+      <c r="G103" s="28"/>
+      <c r="H103" s="28"/>
+      <c r="I103" s="28"/>
       <c r="J103" s="1"/>
     </row>
     <row r="104" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
-      <c r="B104" s="26"/>
-      <c r="C104" s="26"/>
-      <c r="D104" s="26"/>
-      <c r="E104" s="26"/>
-      <c r="F104" s="26"/>
-      <c r="G104" s="26"/>
-      <c r="H104" s="26"/>
-      <c r="I104" s="26"/>
+      <c r="B104" s="28"/>
+      <c r="C104" s="28"/>
+      <c r="D104" s="28"/>
+      <c r="E104" s="28"/>
+      <c r="F104" s="28"/>
+      <c r="G104" s="28"/>
+      <c r="H104" s="28"/>
+      <c r="I104" s="28"/>
       <c r="J104" s="1"/>
     </row>
     <row r="105" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
-      <c r="B105" s="26"/>
-      <c r="C105" s="26"/>
-      <c r="D105" s="26"/>
-      <c r="E105" s="26"/>
-      <c r="F105" s="26"/>
-      <c r="G105" s="26"/>
-      <c r="H105" s="26"/>
-      <c r="I105" s="26"/>
+      <c r="B105" s="28"/>
+      <c r="C105" s="28"/>
+      <c r="D105" s="28"/>
+      <c r="E105" s="28"/>
+      <c r="F105" s="28"/>
+      <c r="G105" s="28"/>
+      <c r="H105" s="28"/>
+      <c r="I105" s="28"/>
       <c r="J105" s="1"/>
     </row>
     <row r="106" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
-      <c r="B106" s="26"/>
-      <c r="C106" s="26"/>
-      <c r="D106" s="26"/>
-      <c r="E106" s="26"/>
-      <c r="F106" s="26"/>
-      <c r="G106" s="26"/>
-      <c r="H106" s="26"/>
-      <c r="I106" s="26"/>
+      <c r="B106" s="28"/>
+      <c r="C106" s="28"/>
+      <c r="D106" s="28"/>
+      <c r="E106" s="28"/>
+      <c r="F106" s="28"/>
+      <c r="G106" s="28"/>
+      <c r="H106" s="28"/>
+      <c r="I106" s="28"/>
       <c r="J106" s="1"/>
     </row>
     <row r="107" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
-      <c r="B107" s="26"/>
-      <c r="C107" s="26"/>
-      <c r="D107" s="26"/>
-      <c r="E107" s="26"/>
-      <c r="F107" s="26"/>
-      <c r="G107" s="26"/>
-      <c r="H107" s="26"/>
-      <c r="I107" s="26"/>
+      <c r="B107" s="28"/>
+      <c r="C107" s="28"/>
+      <c r="D107" s="28"/>
+      <c r="E107" s="28"/>
+      <c r="F107" s="28"/>
+      <c r="G107" s="28"/>
+      <c r="H107" s="28"/>
+      <c r="I107" s="28"/>
       <c r="J107" s="1"/>
     </row>
     <row r="108" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
-      <c r="B108" s="26"/>
-      <c r="C108" s="26"/>
-      <c r="D108" s="26"/>
-      <c r="E108" s="26"/>
-      <c r="F108" s="26"/>
-      <c r="G108" s="26"/>
-      <c r="H108" s="26"/>
-      <c r="I108" s="26"/>
+      <c r="B108" s="28"/>
+      <c r="C108" s="28"/>
+      <c r="D108" s="28"/>
+      <c r="E108" s="28"/>
+      <c r="F108" s="28"/>
+      <c r="G108" s="28"/>
+      <c r="H108" s="28"/>
+      <c r="I108" s="28"/>
       <c r="J108" s="1"/>
     </row>
     <row r="109" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
-      <c r="B109" s="26"/>
-      <c r="C109" s="26"/>
-      <c r="D109" s="26"/>
-      <c r="E109" s="26"/>
-      <c r="F109" s="26"/>
-      <c r="G109" s="26"/>
-      <c r="H109" s="26"/>
-      <c r="I109" s="26"/>
+      <c r="B109" s="28"/>
+      <c r="C109" s="28"/>
+      <c r="D109" s="28"/>
+      <c r="E109" s="28"/>
+      <c r="F109" s="28"/>
+      <c r="G109" s="28"/>
+      <c r="H109" s="28"/>
+      <c r="I109" s="28"/>
       <c r="J109" s="1"/>
     </row>
     <row r="110" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
-      <c r="B110" s="26"/>
-      <c r="C110" s="26"/>
-      <c r="D110" s="26"/>
-      <c r="E110" s="26"/>
-      <c r="F110" s="26"/>
-      <c r="G110" s="26"/>
-      <c r="H110" s="26"/>
-      <c r="I110" s="26"/>
+      <c r="B110" s="28"/>
+      <c r="C110" s="28"/>
+      <c r="D110" s="28"/>
+      <c r="E110" s="28"/>
+      <c r="F110" s="28"/>
+      <c r="G110" s="28"/>
+      <c r="H110" s="28"/>
+      <c r="I110" s="28"/>
       <c r="J110" s="1"/>
     </row>
     <row r="111" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
-      <c r="B111" s="26"/>
-      <c r="C111" s="26"/>
-      <c r="D111" s="26"/>
-      <c r="E111" s="26"/>
-      <c r="F111" s="26"/>
-      <c r="G111" s="26"/>
-      <c r="H111" s="26"/>
-      <c r="I111" s="26"/>
+      <c r="B111" s="28"/>
+      <c r="C111" s="28"/>
+      <c r="D111" s="28"/>
+      <c r="E111" s="28"/>
+      <c r="F111" s="28"/>
+      <c r="G111" s="28"/>
+      <c r="H111" s="28"/>
+      <c r="I111" s="28"/>
       <c r="J111" s="1"/>
     </row>
     <row r="112" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
-      <c r="B112" s="26"/>
-      <c r="C112" s="26"/>
-      <c r="D112" s="26"/>
-      <c r="E112" s="26"/>
-      <c r="F112" s="26"/>
-      <c r="G112" s="26"/>
-      <c r="H112" s="26"/>
-      <c r="I112" s="26"/>
+      <c r="B112" s="28"/>
+      <c r="C112" s="28"/>
+      <c r="D112" s="28"/>
+      <c r="E112" s="28"/>
+      <c r="F112" s="28"/>
+      <c r="G112" s="28"/>
+      <c r="H112" s="28"/>
+      <c r="I112" s="28"/>
       <c r="J112" s="1"/>
     </row>
     <row r="113" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A113" s="1"/>
-      <c r="B113" s="26"/>
-      <c r="C113" s="26"/>
-      <c r="D113" s="26"/>
-      <c r="E113" s="26"/>
-      <c r="F113" s="26"/>
-      <c r="G113" s="26"/>
-      <c r="H113" s="26"/>
-      <c r="I113" s="26"/>
+      <c r="B113" s="28"/>
+      <c r="C113" s="28"/>
+      <c r="D113" s="28"/>
+      <c r="E113" s="28"/>
+      <c r="F113" s="28"/>
+      <c r="G113" s="28"/>
+      <c r="H113" s="28"/>
+      <c r="I113" s="28"/>
       <c r="J113" s="1"/>
     </row>
     <row r="114" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A114" s="1"/>
-      <c r="B114" s="26"/>
-      <c r="C114" s="26"/>
-      <c r="D114" s="26"/>
-      <c r="E114" s="26"/>
-      <c r="F114" s="26"/>
-      <c r="G114" s="26"/>
-      <c r="H114" s="26"/>
-      <c r="I114" s="26"/>
+      <c r="B114" s="28"/>
+      <c r="C114" s="28"/>
+      <c r="D114" s="28"/>
+      <c r="E114" s="28"/>
+      <c r="F114" s="28"/>
+      <c r="G114" s="28"/>
+      <c r="H114" s="28"/>
+      <c r="I114" s="28"/>
       <c r="J114" s="1"/>
     </row>
     <row r="115" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
-      <c r="B115" s="26"/>
-      <c r="C115" s="26"/>
-      <c r="D115" s="26"/>
-      <c r="E115" s="26"/>
-      <c r="F115" s="26"/>
-      <c r="G115" s="26"/>
-      <c r="H115" s="26"/>
-      <c r="I115" s="26"/>
+      <c r="B115" s="28"/>
+      <c r="C115" s="28"/>
+      <c r="D115" s="28"/>
+      <c r="E115" s="28"/>
+      <c r="F115" s="28"/>
+      <c r="G115" s="28"/>
+      <c r="H115" s="28"/>
+      <c r="I115" s="28"/>
       <c r="J115" s="1"/>
     </row>
     <row r="116" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
-      <c r="B116" s="26"/>
-      <c r="C116" s="26"/>
-      <c r="D116" s="26"/>
-      <c r="E116" s="26"/>
-      <c r="F116" s="26"/>
-      <c r="G116" s="26"/>
-      <c r="H116" s="26"/>
-      <c r="I116" s="26"/>
+      <c r="B116" s="28"/>
+      <c r="C116" s="28"/>
+      <c r="D116" s="28"/>
+      <c r="E116" s="28"/>
+      <c r="F116" s="28"/>
+      <c r="G116" s="28"/>
+      <c r="H116" s="28"/>
+      <c r="I116" s="28"/>
       <c r="J116" s="1"/>
     </row>
     <row r="117" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
-      <c r="B117" s="26"/>
-      <c r="C117" s="26"/>
-      <c r="D117" s="26"/>
-      <c r="E117" s="26"/>
-      <c r="F117" s="26"/>
-      <c r="G117" s="26"/>
-      <c r="H117" s="26"/>
-      <c r="I117" s="26"/>
+      <c r="B117" s="28"/>
+      <c r="C117" s="28"/>
+      <c r="D117" s="28"/>
+      <c r="E117" s="28"/>
+      <c r="F117" s="28"/>
+      <c r="G117" s="28"/>
+      <c r="H117" s="28"/>
+      <c r="I117" s="28"/>
       <c r="J117" s="1"/>
     </row>
     <row r="118" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A118" s="1"/>
-      <c r="B118" s="26"/>
-      <c r="C118" s="26"/>
-      <c r="D118" s="26"/>
-      <c r="E118" s="26"/>
-      <c r="F118" s="26"/>
-      <c r="G118" s="26"/>
-      <c r="H118" s="26"/>
-      <c r="I118" s="26"/>
+      <c r="B118" s="28"/>
+      <c r="C118" s="28"/>
+      <c r="D118" s="28"/>
+      <c r="E118" s="28"/>
+      <c r="F118" s="28"/>
+      <c r="G118" s="28"/>
+      <c r="H118" s="28"/>
+      <c r="I118" s="28"/>
       <c r="J118" s="1"/>
     </row>
     <row r="119" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A119" s="1"/>
-      <c r="B119" s="26"/>
-      <c r="C119" s="26"/>
-      <c r="D119" s="26"/>
-      <c r="E119" s="26"/>
-      <c r="F119" s="26"/>
-      <c r="G119" s="26"/>
-      <c r="H119" s="26"/>
-      <c r="I119" s="26"/>
+      <c r="B119" s="28"/>
+      <c r="C119" s="28"/>
+      <c r="D119" s="28"/>
+      <c r="E119" s="28"/>
+      <c r="F119" s="28"/>
+      <c r="G119" s="28"/>
+      <c r="H119" s="28"/>
+      <c r="I119" s="28"/>
       <c r="J119" s="1"/>
     </row>
     <row r="120" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A120" s="1"/>
-      <c r="B120" s="26"/>
-      <c r="C120" s="26"/>
-      <c r="D120" s="26"/>
-      <c r="E120" s="26"/>
-      <c r="F120" s="26"/>
-      <c r="G120" s="26"/>
-      <c r="H120" s="26"/>
-      <c r="I120" s="26"/>
+      <c r="B120" s="28"/>
+      <c r="C120" s="28"/>
+      <c r="D120" s="28"/>
+      <c r="E120" s="28"/>
+      <c r="F120" s="28"/>
+      <c r="G120" s="28"/>
+      <c r="H120" s="28"/>
+      <c r="I120" s="28"/>
       <c r="J120" s="1"/>
     </row>
     <row r="121" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
-      <c r="B121" s="26"/>
-      <c r="C121" s="26"/>
-      <c r="D121" s="26"/>
-      <c r="E121" s="26"/>
-      <c r="F121" s="26"/>
-      <c r="G121" s="26"/>
-      <c r="H121" s="26"/>
-      <c r="I121" s="26"/>
+      <c r="B121" s="28"/>
+      <c r="C121" s="28"/>
+      <c r="D121" s="28"/>
+      <c r="E121" s="28"/>
+      <c r="F121" s="28"/>
+      <c r="G121" s="28"/>
+      <c r="H121" s="28"/>
+      <c r="I121" s="28"/>
       <c r="J121" s="1"/>
     </row>
     <row r="122" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A122" s="1"/>
-      <c r="B122" s="26"/>
-      <c r="C122" s="26"/>
-      <c r="D122" s="26"/>
-      <c r="E122" s="26"/>
-      <c r="F122" s="26"/>
-      <c r="G122" s="26"/>
-      <c r="H122" s="26"/>
-      <c r="I122" s="26"/>
+      <c r="B122" s="28"/>
+      <c r="C122" s="28"/>
+      <c r="D122" s="28"/>
+      <c r="E122" s="28"/>
+      <c r="F122" s="28"/>
+      <c r="G122" s="28"/>
+      <c r="H122" s="28"/>
+      <c r="I122" s="28"/>
       <c r="J122" s="1"/>
     </row>
     <row r="123" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
-      <c r="B123" s="26"/>
-      <c r="C123" s="26"/>
-      <c r="D123" s="26"/>
-      <c r="E123" s="26"/>
-      <c r="F123" s="26"/>
-      <c r="G123" s="26"/>
-      <c r="H123" s="26"/>
-      <c r="I123" s="26"/>
+      <c r="B123" s="28"/>
+      <c r="C123" s="28"/>
+      <c r="D123" s="28"/>
+      <c r="E123" s="28"/>
+      <c r="F123" s="28"/>
+      <c r="G123" s="28"/>
+      <c r="H123" s="28"/>
+      <c r="I123" s="28"/>
       <c r="J123" s="1"/>
     </row>
     <row r="124" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A124" s="1"/>
-      <c r="B124" s="26"/>
-      <c r="C124" s="26"/>
-      <c r="D124" s="26"/>
-      <c r="E124" s="26"/>
-      <c r="F124" s="26"/>
-      <c r="G124" s="26"/>
-      <c r="H124" s="26"/>
-      <c r="I124" s="26"/>
+      <c r="B124" s="28"/>
+      <c r="C124" s="28"/>
+      <c r="D124" s="28"/>
+      <c r="E124" s="28"/>
+      <c r="F124" s="28"/>
+      <c r="G124" s="28"/>
+      <c r="H124" s="28"/>
+      <c r="I124" s="28"/>
       <c r="J124" s="1"/>
     </row>
     <row r="125" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A125" s="1"/>
-      <c r="B125" s="26"/>
-      <c r="C125" s="26"/>
-      <c r="D125" s="26"/>
-      <c r="E125" s="26"/>
-      <c r="F125" s="26"/>
-      <c r="G125" s="26"/>
-      <c r="H125" s="26"/>
-      <c r="I125" s="26"/>
+      <c r="B125" s="28"/>
+      <c r="C125" s="28"/>
+      <c r="D125" s="28"/>
+      <c r="E125" s="28"/>
+      <c r="F125" s="28"/>
+      <c r="G125" s="28"/>
+      <c r="H125" s="28"/>
+      <c r="I125" s="28"/>
       <c r="J125" s="1"/>
     </row>
     <row r="126" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A126" s="1"/>
-      <c r="B126" s="26"/>
-      <c r="C126" s="26"/>
-      <c r="D126" s="26"/>
-      <c r="E126" s="26"/>
-      <c r="F126" s="26"/>
-      <c r="G126" s="26"/>
-      <c r="H126" s="26"/>
-      <c r="I126" s="26"/>
+      <c r="B126" s="28"/>
+      <c r="C126" s="28"/>
+      <c r="D126" s="28"/>
+      <c r="E126" s="28"/>
+      <c r="F126" s="28"/>
+      <c r="G126" s="28"/>
+      <c r="H126" s="28"/>
+      <c r="I126" s="28"/>
       <c r="J126" s="1"/>
     </row>
     <row r="127" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
-      <c r="B127" s="26"/>
-      <c r="C127" s="26"/>
-      <c r="D127" s="26"/>
-      <c r="E127" s="26"/>
-      <c r="F127" s="26"/>
-      <c r="G127" s="26"/>
-      <c r="H127" s="26"/>
-      <c r="I127" s="26"/>
+      <c r="B127" s="28"/>
+      <c r="C127" s="28"/>
+      <c r="D127" s="28"/>
+      <c r="E127" s="28"/>
+      <c r="F127" s="28"/>
+      <c r="G127" s="28"/>
+      <c r="H127" s="28"/>
+      <c r="I127" s="28"/>
       <c r="J127" s="1"/>
     </row>
     <row r="128" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A128" s="1"/>
-      <c r="B128" s="26"/>
-      <c r="C128" s="26"/>
-      <c r="D128" s="26"/>
-      <c r="E128" s="26"/>
-      <c r="F128" s="26"/>
-      <c r="G128" s="26"/>
-      <c r="H128" s="26"/>
-      <c r="I128" s="26"/>
+      <c r="B128" s="28"/>
+      <c r="C128" s="28"/>
+      <c r="D128" s="28"/>
+      <c r="E128" s="28"/>
+      <c r="F128" s="28"/>
+      <c r="G128" s="28"/>
+      <c r="H128" s="28"/>
+      <c r="I128" s="28"/>
       <c r="J128" s="1"/>
     </row>
     <row r="129" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A129" s="1"/>
-      <c r="B129" s="26"/>
-      <c r="C129" s="26"/>
-      <c r="D129" s="26"/>
-      <c r="E129" s="26"/>
-      <c r="F129" s="26"/>
-      <c r="G129" s="26"/>
-      <c r="H129" s="26"/>
-      <c r="I129" s="26"/>
+      <c r="B129" s="28"/>
+      <c r="C129" s="28"/>
+      <c r="D129" s="28"/>
+      <c r="E129" s="28"/>
+      <c r="F129" s="28"/>
+      <c r="G129" s="28"/>
+      <c r="H129" s="28"/>
+      <c r="I129" s="28"/>
       <c r="J129" s="1"/>
     </row>
     <row r="130" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A130" s="1"/>
-      <c r="B130" s="26"/>
-      <c r="C130" s="26"/>
-      <c r="D130" s="26"/>
-      <c r="E130" s="26"/>
-      <c r="F130" s="26"/>
-      <c r="G130" s="26"/>
-      <c r="H130" s="26"/>
-      <c r="I130" s="26"/>
+      <c r="B130" s="28"/>
+      <c r="C130" s="28"/>
+      <c r="D130" s="28"/>
+      <c r="E130" s="28"/>
+      <c r="F130" s="28"/>
+      <c r="G130" s="28"/>
+      <c r="H130" s="28"/>
+      <c r="I130" s="28"/>
       <c r="J130" s="1"/>
     </row>
     <row r="131" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
-      <c r="B131" s="26"/>
-      <c r="C131" s="26"/>
-      <c r="D131" s="26"/>
-      <c r="E131" s="26"/>
-      <c r="F131" s="26"/>
-      <c r="G131" s="26"/>
-      <c r="H131" s="26"/>
-      <c r="I131" s="26"/>
+      <c r="B131" s="28"/>
+      <c r="C131" s="28"/>
+      <c r="D131" s="28"/>
+      <c r="E131" s="28"/>
+      <c r="F131" s="28"/>
+      <c r="G131" s="28"/>
+      <c r="H131" s="28"/>
+      <c r="I131" s="28"/>
       <c r="J131" s="1"/>
     </row>
     <row r="132" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A132" s="1"/>
-      <c r="B132" s="26"/>
-      <c r="C132" s="26"/>
-      <c r="D132" s="26"/>
-      <c r="E132" s="26"/>
-      <c r="F132" s="26"/>
-      <c r="G132" s="26"/>
-      <c r="H132" s="26"/>
-      <c r="I132" s="26"/>
+      <c r="B132" s="28"/>
+      <c r="C132" s="28"/>
+      <c r="D132" s="28"/>
+      <c r="E132" s="28"/>
+      <c r="F132" s="28"/>
+      <c r="G132" s="28"/>
+      <c r="H132" s="28"/>
+      <c r="I132" s="28"/>
       <c r="J132" s="1"/>
     </row>
     <row r="133" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A133" s="1"/>
-      <c r="B133" s="26"/>
-      <c r="C133" s="26"/>
-      <c r="D133" s="26"/>
-      <c r="E133" s="26"/>
-      <c r="F133" s="26"/>
-      <c r="G133" s="26"/>
-      <c r="H133" s="26"/>
-      <c r="I133" s="26"/>
+      <c r="B133" s="28"/>
+      <c r="C133" s="28"/>
+      <c r="D133" s="28"/>
+      <c r="E133" s="28"/>
+      <c r="F133" s="28"/>
+      <c r="G133" s="28"/>
+      <c r="H133" s="28"/>
+      <c r="I133" s="28"/>
       <c r="J133" s="1"/>
     </row>
     <row r="134" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A134" s="1"/>
-      <c r="B134" s="26"/>
-      <c r="C134" s="26"/>
-      <c r="D134" s="26"/>
-      <c r="E134" s="26"/>
-      <c r="F134" s="26"/>
-      <c r="G134" s="26"/>
-      <c r="H134" s="26"/>
-      <c r="I134" s="26"/>
+      <c r="B134" s="28"/>
+      <c r="C134" s="28"/>
+      <c r="D134" s="28"/>
+      <c r="E134" s="28"/>
+      <c r="F134" s="28"/>
+      <c r="G134" s="28"/>
+      <c r="H134" s="28"/>
+      <c r="I134" s="28"/>
       <c r="J134" s="1"/>
     </row>
     <row r="135" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A135" s="1"/>
-      <c r="B135" s="26"/>
-      <c r="C135" s="26"/>
-      <c r="D135" s="26"/>
-      <c r="E135" s="26"/>
-      <c r="F135" s="26"/>
-      <c r="G135" s="26"/>
-      <c r="H135" s="26"/>
-      <c r="I135" s="26"/>
+      <c r="B135" s="28"/>
+      <c r="C135" s="28"/>
+      <c r="D135" s="28"/>
+      <c r="E135" s="28"/>
+      <c r="F135" s="28"/>
+      <c r="G135" s="28"/>
+      <c r="H135" s="28"/>
+      <c r="I135" s="28"/>
       <c r="J135" s="1"/>
     </row>
     <row r="136" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A136" s="1"/>
-      <c r="B136" s="26"/>
-      <c r="C136" s="26"/>
-      <c r="D136" s="26"/>
-      <c r="E136" s="26"/>
-      <c r="F136" s="26"/>
-      <c r="G136" s="26"/>
-      <c r="H136" s="26"/>
-      <c r="I136" s="26"/>
+      <c r="B136" s="28"/>
+      <c r="C136" s="28"/>
+      <c r="D136" s="28"/>
+      <c r="E136" s="28"/>
+      <c r="F136" s="28"/>
+      <c r="G136" s="28"/>
+      <c r="H136" s="28"/>
+      <c r="I136" s="28"/>
       <c r="J136" s="1"/>
     </row>
     <row r="137" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A137" s="1"/>
-      <c r="B137" s="26"/>
-      <c r="C137" s="26"/>
-      <c r="D137" s="26"/>
-      <c r="E137" s="26"/>
-      <c r="F137" s="26"/>
-      <c r="G137" s="26"/>
-      <c r="H137" s="26"/>
-      <c r="I137" s="26"/>
+      <c r="B137" s="28"/>
+      <c r="C137" s="28"/>
+      <c r="D137" s="28"/>
+      <c r="E137" s="28"/>
+      <c r="F137" s="28"/>
+      <c r="G137" s="28"/>
+      <c r="H137" s="28"/>
+      <c r="I137" s="28"/>
       <c r="J137" s="1"/>
     </row>
     <row r="138" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A138" s="1"/>
-      <c r="B138" s="26"/>
-      <c r="C138" s="26"/>
-      <c r="D138" s="26"/>
-      <c r="E138" s="26"/>
-      <c r="F138" s="26"/>
-      <c r="G138" s="26"/>
-      <c r="H138" s="26"/>
-      <c r="I138" s="26"/>
+      <c r="B138" s="28"/>
+      <c r="C138" s="28"/>
+      <c r="D138" s="28"/>
+      <c r="E138" s="28"/>
+      <c r="F138" s="28"/>
+      <c r="G138" s="28"/>
+      <c r="H138" s="28"/>
+      <c r="I138" s="28"/>
       <c r="J138" s="1"/>
     </row>
     <row r="139" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A139" s="1"/>
-      <c r="B139" s="26"/>
-      <c r="C139" s="26"/>
-      <c r="D139" s="26"/>
-      <c r="E139" s="26"/>
-      <c r="F139" s="26"/>
-      <c r="G139" s="26"/>
-      <c r="H139" s="26"/>
-      <c r="I139" s="26"/>
+      <c r="B139" s="28"/>
+      <c r="C139" s="28"/>
+      <c r="D139" s="28"/>
+      <c r="E139" s="28"/>
+      <c r="F139" s="28"/>
+      <c r="G139" s="28"/>
+      <c r="H139" s="28"/>
+      <c r="I139" s="28"/>
       <c r="J139" s="1"/>
     </row>
     <row r="140" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A140" s="1"/>
-      <c r="B140" s="26"/>
-      <c r="C140" s="26"/>
-      <c r="D140" s="26"/>
-      <c r="E140" s="26"/>
-      <c r="F140" s="26"/>
-      <c r="G140" s="26"/>
-      <c r="H140" s="26"/>
-      <c r="I140" s="26"/>
+      <c r="B140" s="28"/>
+      <c r="C140" s="28"/>
+      <c r="D140" s="28"/>
+      <c r="E140" s="28"/>
+      <c r="F140" s="28"/>
+      <c r="G140" s="28"/>
+      <c r="H140" s="28"/>
+      <c r="I140" s="28"/>
       <c r="J140" s="1"/>
     </row>
     <row r="141" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A141" s="1"/>
-      <c r="B141" s="26"/>
-      <c r="C141" s="26"/>
-      <c r="D141" s="26"/>
-      <c r="E141" s="26"/>
-      <c r="F141" s="26"/>
-      <c r="G141" s="26"/>
-      <c r="H141" s="26"/>
-      <c r="I141" s="26"/>
+      <c r="B141" s="28"/>
+      <c r="C141" s="28"/>
+      <c r="D141" s="28"/>
+      <c r="E141" s="28"/>
+      <c r="F141" s="28"/>
+      <c r="G141" s="28"/>
+      <c r="H141" s="28"/>
+      <c r="I141" s="28"/>
       <c r="J141" s="1"/>
     </row>
     <row r="142" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A142" s="1"/>
-      <c r="B142" s="26"/>
-      <c r="C142" s="26"/>
-      <c r="D142" s="26"/>
-      <c r="E142" s="26"/>
-      <c r="F142" s="26"/>
-      <c r="G142" s="26"/>
-      <c r="H142" s="26"/>
-      <c r="I142" s="26"/>
+      <c r="B142" s="28"/>
+      <c r="C142" s="28"/>
+      <c r="D142" s="28"/>
+      <c r="E142" s="28"/>
+      <c r="F142" s="28"/>
+      <c r="G142" s="28"/>
+      <c r="H142" s="28"/>
+      <c r="I142" s="28"/>
       <c r="J142" s="1"/>
     </row>
     <row r="143" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A143" s="1"/>
-      <c r="B143" s="26"/>
-      <c r="C143" s="26"/>
-      <c r="D143" s="26"/>
-      <c r="E143" s="26"/>
-      <c r="F143" s="26"/>
-      <c r="G143" s="26"/>
-      <c r="H143" s="26"/>
-      <c r="I143" s="26"/>
+      <c r="B143" s="28"/>
+      <c r="C143" s="28"/>
+      <c r="D143" s="28"/>
+      <c r="E143" s="28"/>
+      <c r="F143" s="28"/>
+      <c r="G143" s="28"/>
+      <c r="H143" s="28"/>
+      <c r="I143" s="28"/>
       <c r="J143" s="1"/>
     </row>
     <row r="144" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A144" s="1"/>
-      <c r="B144" s="26"/>
-      <c r="C144" s="26"/>
-      <c r="D144" s="26"/>
-      <c r="E144" s="26"/>
-      <c r="F144" s="26"/>
-      <c r="G144" s="26"/>
-      <c r="H144" s="26"/>
-      <c r="I144" s="26"/>
+      <c r="B144" s="28"/>
+      <c r="C144" s="28"/>
+      <c r="D144" s="28"/>
+      <c r="E144" s="28"/>
+      <c r="F144" s="28"/>
+      <c r="G144" s="28"/>
+      <c r="H144" s="28"/>
+      <c r="I144" s="28"/>
       <c r="J144" s="1"/>
     </row>
     <row r="145" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A145" s="1"/>
-      <c r="B145" s="26"/>
-      <c r="C145" s="26"/>
-      <c r="D145" s="26"/>
-      <c r="E145" s="26"/>
-      <c r="F145" s="26"/>
-      <c r="G145" s="26"/>
-      <c r="H145" s="26"/>
-      <c r="I145" s="26"/>
+      <c r="B145" s="28"/>
+      <c r="C145" s="28"/>
+      <c r="D145" s="28"/>
+      <c r="E145" s="28"/>
+      <c r="F145" s="28"/>
+      <c r="G145" s="28"/>
+      <c r="H145" s="28"/>
+      <c r="I145" s="28"/>
       <c r="J145" s="1"/>
     </row>
     <row r="146" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A146" s="1"/>
-      <c r="B146" s="26"/>
-      <c r="C146" s="26"/>
-      <c r="D146" s="26"/>
-      <c r="E146" s="26"/>
-      <c r="F146" s="26"/>
-      <c r="G146" s="26"/>
-      <c r="H146" s="26"/>
-      <c r="I146" s="26"/>
+      <c r="B146" s="28"/>
+      <c r="C146" s="28"/>
+      <c r="D146" s="28"/>
+      <c r="E146" s="28"/>
+      <c r="F146" s="28"/>
+      <c r="G146" s="28"/>
+      <c r="H146" s="28"/>
+      <c r="I146" s="28"/>
       <c r="J146" s="1"/>
     </row>
     <row r="147" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A147" s="1"/>
-      <c r="B147" s="26"/>
-      <c r="C147" s="26"/>
-      <c r="D147" s="26"/>
-      <c r="E147" s="26"/>
-      <c r="F147" s="26"/>
-      <c r="G147" s="26"/>
-      <c r="H147" s="26"/>
-      <c r="I147" s="26"/>
+      <c r="B147" s="28"/>
+      <c r="C147" s="28"/>
+      <c r="D147" s="28"/>
+      <c r="E147" s="28"/>
+      <c r="F147" s="28"/>
+      <c r="G147" s="28"/>
+      <c r="H147" s="28"/>
+      <c r="I147" s="28"/>
       <c r="J147" s="1"/>
     </row>
     <row r="148" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A148" s="1"/>
-      <c r="B148" s="26"/>
-      <c r="C148" s="26"/>
-      <c r="D148" s="26"/>
-      <c r="E148" s="26"/>
-      <c r="F148" s="26"/>
-      <c r="G148" s="26"/>
-      <c r="H148" s="26"/>
-      <c r="I148" s="26"/>
+      <c r="B148" s="28"/>
+      <c r="C148" s="28"/>
+      <c r="D148" s="28"/>
+      <c r="E148" s="28"/>
+      <c r="F148" s="28"/>
+      <c r="G148" s="28"/>
+      <c r="H148" s="28"/>
+      <c r="I148" s="28"/>
       <c r="J148" s="1"/>
     </row>
     <row r="149" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A149" s="1"/>
-      <c r="B149" s="26"/>
-      <c r="C149" s="26"/>
-      <c r="D149" s="26"/>
-      <c r="E149" s="26"/>
-      <c r="F149" s="26"/>
-      <c r="G149" s="26"/>
-      <c r="H149" s="26"/>
-      <c r="I149" s="26"/>
+      <c r="B149" s="28"/>
+      <c r="C149" s="28"/>
+      <c r="D149" s="28"/>
+      <c r="E149" s="28"/>
+      <c r="F149" s="28"/>
+      <c r="G149" s="28"/>
+      <c r="H149" s="28"/>
+      <c r="I149" s="28"/>
       <c r="J149" s="1"/>
     </row>
     <row r="150" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A150" s="1"/>
-      <c r="B150" s="26"/>
-      <c r="C150" s="26"/>
-      <c r="D150" s="26"/>
-      <c r="E150" s="26"/>
-      <c r="F150" s="26"/>
-      <c r="G150" s="26"/>
-      <c r="H150" s="26"/>
-      <c r="I150" s="26"/>
+      <c r="B150" s="28"/>
+      <c r="C150" s="28"/>
+      <c r="D150" s="28"/>
+      <c r="E150" s="28"/>
+      <c r="F150" s="28"/>
+      <c r="G150" s="28"/>
+      <c r="H150" s="28"/>
+      <c r="I150" s="28"/>
       <c r="J150" s="1"/>
     </row>
     <row r="151" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A151" s="1"/>
-      <c r="B151" s="26"/>
-      <c r="C151" s="26"/>
-      <c r="D151" s="26"/>
-      <c r="E151" s="26"/>
-      <c r="F151" s="26"/>
-      <c r="G151" s="26"/>
-      <c r="H151" s="26"/>
-      <c r="I151" s="26"/>
+      <c r="B151" s="28"/>
+      <c r="C151" s="28"/>
+      <c r="D151" s="28"/>
+      <c r="E151" s="28"/>
+      <c r="F151" s="28"/>
+      <c r="G151" s="28"/>
+      <c r="H151" s="28"/>
+      <c r="I151" s="28"/>
       <c r="J151" s="1"/>
     </row>
     <row r="152" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A152" s="1"/>
-      <c r="B152" s="26"/>
-      <c r="C152" s="26"/>
-      <c r="D152" s="26"/>
-      <c r="E152" s="26"/>
-      <c r="F152" s="26"/>
-      <c r="G152" s="26"/>
-      <c r="H152" s="26"/>
-      <c r="I152" s="26"/>
+      <c r="B152" s="28"/>
+      <c r="C152" s="28"/>
+      <c r="D152" s="28"/>
+      <c r="E152" s="28"/>
+      <c r="F152" s="28"/>
+      <c r="G152" s="28"/>
+      <c r="H152" s="28"/>
+      <c r="I152" s="28"/>
       <c r="J152" s="1"/>
     </row>
     <row r="153" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A153" s="1"/>
-      <c r="B153" s="26"/>
-      <c r="C153" s="26"/>
-      <c r="D153" s="26"/>
-      <c r="E153" s="26"/>
-      <c r="F153" s="26"/>
-      <c r="G153" s="26"/>
-      <c r="H153" s="26"/>
-      <c r="I153" s="26"/>
+      <c r="B153" s="28"/>
+      <c r="C153" s="28"/>
+      <c r="D153" s="28"/>
+      <c r="E153" s="28"/>
+      <c r="F153" s="28"/>
+      <c r="G153" s="28"/>
+      <c r="H153" s="28"/>
+      <c r="I153" s="28"/>
       <c r="J153" s="1"/>
     </row>
     <row r="154" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A154" s="1"/>
-      <c r="B154" s="26"/>
-      <c r="C154" s="26"/>
-      <c r="D154" s="26"/>
-      <c r="E154" s="26"/>
-      <c r="F154" s="26"/>
-      <c r="G154" s="26"/>
-      <c r="H154" s="26"/>
-      <c r="I154" s="26"/>
+      <c r="B154" s="28"/>
+      <c r="C154" s="28"/>
+      <c r="D154" s="28"/>
+      <c r="E154" s="28"/>
+      <c r="F154" s="28"/>
+      <c r="G154" s="28"/>
+      <c r="H154" s="28"/>
+      <c r="I154" s="28"/>
       <c r="J154" s="1"/>
     </row>
     <row r="155" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
@@ -4372,58 +4372,58 @@
     </row>
     <row r="156" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A156" s="1"/>
-      <c r="B156" s="29" t="s">
+      <c r="B156" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C156" s="26"/>
-      <c r="D156" s="26"/>
-      <c r="E156" s="26"/>
-      <c r="F156" s="26"/>
-      <c r="G156" s="26"/>
-      <c r="H156" s="26"/>
-      <c r="I156" s="26"/>
+      <c r="C156" s="28"/>
+      <c r="D156" s="28"/>
+      <c r="E156" s="28"/>
+      <c r="F156" s="28"/>
+      <c r="G156" s="28"/>
+      <c r="H156" s="28"/>
+      <c r="I156" s="28"/>
       <c r="J156" s="1"/>
     </row>
     <row r="157" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1"/>
-      <c r="B157" s="25" t="s">
+      <c r="B157" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C157" s="26"/>
-      <c r="D157" s="26"/>
-      <c r="E157" s="26"/>
-      <c r="F157" s="26"/>
-      <c r="G157" s="26"/>
-      <c r="H157" s="26"/>
-      <c r="I157" s="26"/>
+      <c r="C157" s="28"/>
+      <c r="D157" s="28"/>
+      <c r="E157" s="28"/>
+      <c r="F157" s="28"/>
+      <c r="G157" s="28"/>
+      <c r="H157" s="28"/>
+      <c r="I157" s="28"/>
       <c r="J157" s="1"/>
     </row>
     <row r="158" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="1"/>
-      <c r="B158" s="25" t="s">
+      <c r="B158" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C158" s="26"/>
-      <c r="D158" s="26"/>
-      <c r="E158" s="26"/>
-      <c r="F158" s="26"/>
-      <c r="G158" s="26"/>
-      <c r="H158" s="26"/>
-      <c r="I158" s="26"/>
+      <c r="C158" s="28"/>
+      <c r="D158" s="28"/>
+      <c r="E158" s="28"/>
+      <c r="F158" s="28"/>
+      <c r="G158" s="28"/>
+      <c r="H158" s="28"/>
+      <c r="I158" s="28"/>
       <c r="J158" s="1"/>
     </row>
     <row r="159" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1"/>
-      <c r="B159" s="25" t="s">
+      <c r="B159" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C159" s="26"/>
-      <c r="D159" s="26"/>
-      <c r="E159" s="26"/>
-      <c r="F159" s="26"/>
-      <c r="G159" s="26"/>
-      <c r="H159" s="26"/>
-      <c r="I159" s="26"/>
+      <c r="C159" s="28"/>
+      <c r="D159" s="28"/>
+      <c r="E159" s="28"/>
+      <c r="F159" s="28"/>
+      <c r="G159" s="28"/>
+      <c r="H159" s="28"/>
+      <c r="I159" s="28"/>
       <c r="J159" s="1"/>
     </row>
     <row r="160" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
@@ -5378,7 +5378,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z999"/>
+  <dimension ref="A1:D999"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -5393,12 +5393,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
     </row>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -5432,7 +5432,7 @@
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="21" t="s">
         <v>74</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -5446,7 +5446,7 @@
       <c r="A5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="33">
+      <c r="B5" s="20">
         <v>40008</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -5460,7 +5460,7 @@
       <c r="A6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="33">
+      <c r="B6" s="20">
         <v>44005</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -6561,7 +6561,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AC500"/>
+  <dimension ref="A1:I500"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:I1"/>
@@ -6581,17 +6581,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
     </row>
     <row r="2" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -6622,7 +6622,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="144" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="156" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
         <v>77</v>
       </c>
@@ -6668,7 +6668,7 @@
       </c>
       <c r="I4" s="17"/>
     </row>
-    <row r="5" spans="1:9" ht="264" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="276" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
         <v>88</v>
       </c>
@@ -12178,10 +12178,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AA10"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A3:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -12191,14 +12191,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
     </row>
     <row r="2" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -12221,9 +12221,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="24" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A3,Concepts!A3:A500,1), "")</f>
-        <v>http://resource.geosciml.org/classifier/cgi/particletype/biogenic_particle</v>
+      <c r="A3" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -12232,9 +12231,8 @@
       <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:6" ht="24" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A4,Concepts!A4:A500,1), "")</f>
-        <v>http://resource.geosciml.org/classifier/cgi/particletype/bleb</v>
+      <c r="A4" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -12243,9 +12241,8 @@
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" ht="24" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A5,Concepts!A5:A500,1), "")</f>
-        <v>http://resource.geosciml.org/classifier/cgi/particletype/cavity</v>
+      <c r="A5" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -12254,9 +12251,8 @@
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" ht="24" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A6,Concepts!A6:A500,1), "")</f>
-        <v>http://resource.geosciml.org/classifier/cgi/particletype/bioclast</v>
+      <c r="A6" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -12265,9 +12261,8 @@
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6" ht="24" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A7,Concepts!A7:A500,1), "")</f>
-        <v>http://resource.geosciml.org/classifier/cgi/particletype/vug</v>
+      <c r="A7" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -12275,44 +12270,11 @@
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A8,Concepts!A8:A500,1), "")</f>
-        <v/>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A9,Concepts!A9:A500,1), "")</f>
-        <v/>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A10,Concepts!A10:A500,1), "")</f>
-        <v/>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A3:A10">
+  <conditionalFormatting sqref="A3:A7">
     <cfRule type="containsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A3))=0</formula>
     </cfRule>
@@ -12326,7 +12288,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -12342,13 +12304,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
     </row>
     <row r="2" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">

--- a/tests/templ_versions/043_simple_valid.xlsx
+++ b/tests/templ_versions/043_simple_valid.xlsx
@@ -8,17 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dlinke\MyProg_local\gh-nfdi4cat\voc4cat-tool\tests\templ_versions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED10178-C778-4335-9997-B87658F5F012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D362BA8-3A2A-4F04-BF41-7D6237139B4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5205" yWindow="4455" windowWidth="28800" windowHeight="15825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Introduction" sheetId="1" r:id="rId1"/>
-    <sheet name="Concept Scheme" sheetId="3" r:id="rId2"/>
-    <sheet name="Concepts" sheetId="4" r:id="rId3"/>
-    <sheet name="Additional Concept Features" sheetId="5" r:id="rId4"/>
-    <sheet name="Collections" sheetId="6" r:id="rId5"/>
-    <sheet name="Prefix Sheet" sheetId="7" r:id="rId6"/>
+    <sheet name="Concept Scheme" sheetId="3" r:id="rId1"/>
+    <sheet name="Concepts" sheetId="4" r:id="rId2"/>
+    <sheet name="Additional Concept Features" sheetId="5" r:id="rId3"/>
+    <sheet name="Collections" sheetId="6" r:id="rId4"/>
+    <sheet name="Prefix Sheet" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -138,19 +137,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="111">
-  <si>
-    <t>SKOS Vocabulary Template</t>
-  </si>
-  <si>
-    <t>Version:</t>
-  </si>
-  <si>
-    <t>0.4.3</t>
-  </si>
-  <si>
-    <t>Please refer to the example template for example implementation</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="107">
   <si>
     <t>Concept Scheme</t>
   </si>
@@ -309,39 +296,6 @@
   </si>
   <si>
     <t>http://example.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Purpose: This spreadsheet is a template for information that can be converted into SKOS RDF data. This template utilises SKOS model elements. For further information for how to use this spreadsheet, please read https://www.w3.org/TR/skos-reference/ and https://www.w3.org/TR/skos-primer/ </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Validate your data here: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>https://vocexcel.surroundaustralia.com/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">For VocPub specifications, see: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>https://surroundaustralia.github.io/vocpub-profile/specification.html</t>
-    </r>
   </si>
   <si>
     <t>CGI</t>
@@ -497,13 +451,22 @@
   </si>
   <si>
     <t>Parent IRIs</t>
+  </si>
+  <si>
+    <t>Template Version</t>
+  </si>
+  <si>
+    <t>0.4.3, rev. 2025-07a</t>
+  </si>
+  <si>
+    <t>Version of the xlsx template</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -564,13 +527,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF1155CC"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="9"/>
       <color rgb="FF000000"/>
@@ -597,24 +553,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8E7CC3"/>
-        <bgColor rgb="FF8E7CC3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor theme="0"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -641,33 +585,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -679,37 +611,31 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -722,31 +648,12 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFD9EAD3"/>
           <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB47CFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9EAD3"/>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
         </patternFill>
       </fill>
     </dxf>
@@ -960,1556 +867,1184 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:J28"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="7"/>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-    </row>
-    <row r="2" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-    </row>
-    <row r="3" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-    </row>
-    <row r="4" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-    </row>
-    <row r="5" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-    </row>
-    <row r="6" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-    </row>
-    <row r="7" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-    </row>
-    <row r="8" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-    </row>
-    <row r="9" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-    </row>
-    <row r="10" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-    </row>
-    <row r="13" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-    </row>
-    <row r="14" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-    </row>
-    <row r="15" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-    </row>
-    <row r="16" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-    </row>
-    <row r="17" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-    </row>
-    <row r="18" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-    </row>
-    <row r="19" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-    </row>
-    <row r="20" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-    </row>
-    <row r="21" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-    </row>
-    <row r="22" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-    </row>
-    <row r="23" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-    </row>
-    <row r="24" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-    </row>
-    <row r="25" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-    </row>
-    <row r="26" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-    </row>
-    <row r="27" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-    </row>
-    <row r="28" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="B17:G20"/>
-    <mergeCell ref="B22:G22"/>
-  </mergeCells>
-  <conditionalFormatting sqref="A1:J2">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="2">
-      <formula>LEN(TRIM(A1))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H1:J10 A1:G28 H12:J28">
-    <cfRule type="containsBlanks" dxfId="1" priority="1">
-      <formula>LEN(TRIM(A1))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:D999"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" customWidth="1"/>
-    <col min="2" max="2" width="64.109375" customWidth="1"/>
-    <col min="3" max="3" width="32.33203125" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="64.140625" customWidth="1"/>
+    <col min="3" max="3" width="32.28515625" customWidth="1"/>
     <col min="4" max="4" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+    </row>
+    <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-    </row>
-    <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B3" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
+    </row>
+    <row r="4" spans="1:4" ht="36" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B4" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="D4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="B5" s="14">
+        <v>40008</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="C4" s="3" t="s">
+    </row>
+    <row r="6" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B6" s="14">
+        <v>44005</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="18">
-        <v>40008</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="D6" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="B7" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="D7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="18">
-        <v>44005</v>
-      </c>
-      <c r="C6" s="3" t="s">
+    </row>
+    <row r="8" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="B8" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="D8" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="B9" s="13">
+        <v>2016.01</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="10" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="B10" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="17">
-        <v>2016.01</v>
-      </c>
-      <c r="C9" s="3" t="s">
+      <c r="D10" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="B11" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="D11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="3" t="s">
+    </row>
+    <row r="12" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="B12" s="9"/>
+      <c r="C12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="D12" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:4" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:4" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:4" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="13.2" x14ac:dyDescent="0.25"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="23" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="24" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="25" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="26" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="27" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="28" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="29" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="30" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="31" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="32" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="45" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="46" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="47" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="48" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="12.75" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
@@ -2527,327 +2062,327 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:I500"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" style="10" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="61.77734375" style="10" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" style="10" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" style="10" customWidth="1"/>
-    <col min="7" max="7" width="36.21875" style="10" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" style="10" customWidth="1"/>
-    <col min="9" max="9" width="7.44140625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="61.7109375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="36.28515625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="6" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+    </row>
+    <row r="2" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-    </row>
-    <row r="2" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="G2" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="57" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+    </row>
+    <row r="3" spans="1:9" ht="60" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3"/>
+      <c r="H3" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="1:9" ht="24" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="C4" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4"/>
+      <c r="H4" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="1:9" ht="36" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15" t="s">
+      <c r="B5" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="G3"/>
-      <c r="H3" s="15" t="s">
+      <c r="C5" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="I3" s="15"/>
-    </row>
-    <row r="4" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5"/>
+      <c r="H5" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B6" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" s="15" t="s">
+      <c r="C6" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4"/>
-      <c r="H4" s="15" t="s">
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" s="11"/>
+    </row>
+    <row r="7" spans="1:9" ht="24" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="I4" s="15"/>
-    </row>
-    <row r="5" spans="1:9" ht="34.200000000000003" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="B7" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="C7" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5"/>
-      <c r="H5" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="I5" s="15"/>
-    </row>
-    <row r="6" spans="1:9" ht="45.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="I6" s="15"/>
-    </row>
-    <row r="7" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+    </row>
+    <row r="8" spans="1:9" ht="24" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B8" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>82</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-    </row>
-    <row r="8" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>89</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="14" t="s">
-        <v>65</v>
+      <c r="G8" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:9" ht="34.200000000000003" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>93</v>
+    <row r="9" spans="1:9" ht="36" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>86</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="14" t="s">
-        <v>65</v>
+      <c r="G9" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9" ht="45.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>96</v>
+    <row r="10" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>89</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="14" t="s">
-        <v>65</v>
+      <c r="G10" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>98</v>
+    <row r="11" spans="1:9" ht="24" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>91</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
-      <c r="G11" s="14" t="s">
-        <v>81</v>
+      <c r="G11" s="10" t="s">
+        <v>74</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>105</v>
+    <row r="12" spans="1:9" ht="24" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>98</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="14" t="s">
-        <v>75</v>
+      <c r="G12" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:9" ht="34.200000000000003" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>106</v>
+    <row r="13" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>99</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="14" t="s">
-        <v>75</v>
+      <c r="G13" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>107</v>
+    <row r="14" spans="1:9" ht="36" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>100</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="14" t="s">
-        <v>75</v>
+      <c r="G14" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -2858,7 +2393,7 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -2869,7 +2404,7 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -2880,7 +2415,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -2891,7 +2426,7 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -2902,7 +2437,7 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -2913,7 +2448,7 @@
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -2924,7 +2459,7 @@
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -2935,7 +2470,7 @@
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -2946,7 +2481,7 @@
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -2957,7 +2492,7 @@
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -2968,7 +2503,7 @@
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -2979,7 +2514,7 @@
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -2990,7 +2525,7 @@
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -3001,7 +2536,7 @@
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -3012,7 +2547,7 @@
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -3023,7 +2558,7 @@
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -3034,7 +2569,7 @@
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -3045,7 +2580,7 @@
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -3056,7 +2591,7 @@
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -3067,7 +2602,7 @@
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -3078,7 +2613,7 @@
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -3089,7 +2624,7 @@
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -3100,7 +2635,7 @@
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -3111,7 +2646,7 @@
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -3122,7 +2657,7 @@
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -3133,7 +2668,7 @@
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -3144,7 +2679,7 @@
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -3155,7 +2690,7 @@
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -3166,7 +2701,7 @@
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -3177,7 +2712,7 @@
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -3188,7 +2723,7 @@
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -3199,7 +2734,7 @@
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -3210,7 +2745,7 @@
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -3221,7 +2756,7 @@
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -3232,7 +2767,7 @@
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -3243,7 +2778,7 @@
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -3254,7 +2789,7 @@
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -3265,7 +2800,7 @@
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -3276,7 +2811,7 @@
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -3287,7 +2822,7 @@
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -3298,7 +2833,7 @@
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -3309,7 +2844,7 @@
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -3320,7 +2855,7 @@
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -3331,7 +2866,7 @@
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -3342,7 +2877,7 @@
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -3353,7 +2888,7 @@
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -3364,7 +2899,7 @@
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -3375,7 +2910,7 @@
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -3386,7 +2921,7 @@
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -3397,7 +2932,7 @@
       <c r="H64" s="4"/>
       <c r="I64" s="4"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -3408,7 +2943,7 @@
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -3419,7 +2954,7 @@
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -3430,7 +2965,7 @@
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -3441,7 +2976,7 @@
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -3452,7 +2987,7 @@
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -3463,7 +2998,7 @@
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -3474,7 +3009,7 @@
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -3485,7 +3020,7 @@
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -3496,7 +3031,7 @@
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -3507,7 +3042,7 @@
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -3518,7 +3053,7 @@
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -3529,7 +3064,7 @@
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -3540,7 +3075,7 @@
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -3551,7 +3086,7 @@
       <c r="H78" s="4"/>
       <c r="I78" s="4"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -3562,7 +3097,7 @@
       <c r="H79" s="4"/>
       <c r="I79" s="4"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -3573,7 +3108,7 @@
       <c r="H80" s="4"/>
       <c r="I80" s="4"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -3584,7 +3119,7 @@
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -3595,7 +3130,7 @@
       <c r="H82" s="4"/>
       <c r="I82" s="4"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -3606,7 +3141,7 @@
       <c r="H83" s="4"/>
       <c r="I83" s="4"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -3617,7 +3152,7 @@
       <c r="H84" s="4"/>
       <c r="I84" s="4"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -3628,7 +3163,7 @@
       <c r="H85" s="4"/>
       <c r="I85" s="4"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -3639,7 +3174,7 @@
       <c r="H86" s="4"/>
       <c r="I86" s="4"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -3650,7 +3185,7 @@
       <c r="H87" s="4"/>
       <c r="I87" s="4"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -3661,7 +3196,7 @@
       <c r="H88" s="4"/>
       <c r="I88" s="4"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -3672,7 +3207,7 @@
       <c r="H89" s="4"/>
       <c r="I89" s="4"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -3683,7 +3218,7 @@
       <c r="H90" s="4"/>
       <c r="I90" s="4"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -3694,7 +3229,7 @@
       <c r="H91" s="4"/>
       <c r="I91" s="4"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -3705,7 +3240,7 @@
       <c r="H92" s="4"/>
       <c r="I92" s="4"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -3716,7 +3251,7 @@
       <c r="H93" s="4"/>
       <c r="I93" s="4"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -3727,7 +3262,7 @@
       <c r="H94" s="4"/>
       <c r="I94" s="4"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -3738,7 +3273,7 @@
       <c r="H95" s="4"/>
       <c r="I95" s="4"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -3749,7 +3284,7 @@
       <c r="H96" s="4"/>
       <c r="I96" s="4"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
@@ -3760,7 +3295,7 @@
       <c r="H97" s="4"/>
       <c r="I97" s="4"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -3771,7 +3306,7 @@
       <c r="H98" s="4"/>
       <c r="I98" s="4"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -3782,7 +3317,7 @@
       <c r="H99" s="4"/>
       <c r="I99" s="4"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
@@ -3793,7 +3328,7 @@
       <c r="H100" s="4"/>
       <c r="I100" s="4"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
@@ -3804,7 +3339,7 @@
       <c r="H101" s="4"/>
       <c r="I101" s="4"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
@@ -3815,7 +3350,7 @@
       <c r="H102" s="4"/>
       <c r="I102" s="4"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
@@ -3826,7 +3361,7 @@
       <c r="H103" s="4"/>
       <c r="I103" s="4"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
@@ -3837,7 +3372,7 @@
       <c r="H104" s="4"/>
       <c r="I104" s="4"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
@@ -3848,7 +3383,7 @@
       <c r="H105" s="4"/>
       <c r="I105" s="4"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
@@ -3859,7 +3394,7 @@
       <c r="H106" s="4"/>
       <c r="I106" s="4"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
@@ -3870,7 +3405,7 @@
       <c r="H107" s="4"/>
       <c r="I107" s="4"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -3881,7 +3416,7 @@
       <c r="H108" s="4"/>
       <c r="I108" s="4"/>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
@@ -3892,7 +3427,7 @@
       <c r="H109" s="4"/>
       <c r="I109" s="4"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
@@ -3903,7 +3438,7 @@
       <c r="H110" s="4"/>
       <c r="I110" s="4"/>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -3914,7 +3449,7 @@
       <c r="H111" s="4"/>
       <c r="I111" s="4"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
@@ -3925,7 +3460,7 @@
       <c r="H112" s="4"/>
       <c r="I112" s="4"/>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
@@ -3936,7 +3471,7 @@
       <c r="H113" s="4"/>
       <c r="I113" s="4"/>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
@@ -3947,7 +3482,7 @@
       <c r="H114" s="4"/>
       <c r="I114" s="4"/>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
@@ -3958,7 +3493,7 @@
       <c r="H115" s="4"/>
       <c r="I115" s="4"/>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
@@ -3969,7 +3504,7 @@
       <c r="H116" s="4"/>
       <c r="I116" s="4"/>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -3980,7 +3515,7 @@
       <c r="H117" s="4"/>
       <c r="I117" s="4"/>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -3991,7 +3526,7 @@
       <c r="H118" s="4"/>
       <c r="I118" s="4"/>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
@@ -4002,7 +3537,7 @@
       <c r="H119" s="4"/>
       <c r="I119" s="4"/>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
@@ -4013,7 +3548,7 @@
       <c r="H120" s="4"/>
       <c r="I120" s="4"/>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -4024,7 +3559,7 @@
       <c r="H121" s="4"/>
       <c r="I121" s="4"/>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -4035,7 +3570,7 @@
       <c r="H122" s="4"/>
       <c r="I122" s="4"/>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
@@ -4046,7 +3581,7 @@
       <c r="H123" s="4"/>
       <c r="I123" s="4"/>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -4057,7 +3592,7 @@
       <c r="H124" s="4"/>
       <c r="I124" s="4"/>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -4068,7 +3603,7 @@
       <c r="H125" s="4"/>
       <c r="I125" s="4"/>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
@@ -4079,7 +3614,7 @@
       <c r="H126" s="4"/>
       <c r="I126" s="4"/>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
@@ -4090,7 +3625,7 @@
       <c r="H127" s="4"/>
       <c r="I127" s="4"/>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
@@ -4101,7 +3636,7 @@
       <c r="H128" s="4"/>
       <c r="I128" s="4"/>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
@@ -4112,7 +3647,7 @@
       <c r="H129" s="4"/>
       <c r="I129" s="4"/>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
@@ -4123,7 +3658,7 @@
       <c r="H130" s="4"/>
       <c r="I130" s="4"/>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
@@ -4134,7 +3669,7 @@
       <c r="H131" s="4"/>
       <c r="I131" s="4"/>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
@@ -4145,7 +3680,7 @@
       <c r="H132" s="4"/>
       <c r="I132" s="4"/>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
@@ -4156,7 +3691,7 @@
       <c r="H133" s="4"/>
       <c r="I133" s="4"/>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
@@ -4167,7 +3702,7 @@
       <c r="H134" s="4"/>
       <c r="I134" s="4"/>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
@@ -4178,7 +3713,7 @@
       <c r="H135" s="4"/>
       <c r="I135" s="4"/>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
@@ -4189,7 +3724,7 @@
       <c r="H136" s="4"/>
       <c r="I136" s="4"/>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
@@ -4200,7 +3735,7 @@
       <c r="H137" s="4"/>
       <c r="I137" s="4"/>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
@@ -4211,7 +3746,7 @@
       <c r="H138" s="4"/>
       <c r="I138" s="4"/>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
@@ -4222,7 +3757,7 @@
       <c r="H139" s="4"/>
       <c r="I139" s="4"/>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
@@ -4233,7 +3768,7 @@
       <c r="H140" s="4"/>
       <c r="I140" s="4"/>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
@@ -4244,7 +3779,7 @@
       <c r="H141" s="4"/>
       <c r="I141" s="4"/>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
@@ -4255,7 +3790,7 @@
       <c r="H142" s="4"/>
       <c r="I142" s="4"/>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
@@ -4266,7 +3801,7 @@
       <c r="H143" s="4"/>
       <c r="I143" s="4"/>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
@@ -4277,7 +3812,7 @@
       <c r="H144" s="4"/>
       <c r="I144" s="4"/>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
@@ -4288,7 +3823,7 @@
       <c r="H145" s="4"/>
       <c r="I145" s="4"/>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
@@ -4299,7 +3834,7 @@
       <c r="H146" s="4"/>
       <c r="I146" s="4"/>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
@@ -4310,7 +3845,7 @@
       <c r="H147" s="4"/>
       <c r="I147" s="4"/>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
@@ -4321,7 +3856,7 @@
       <c r="H148" s="4"/>
       <c r="I148" s="4"/>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
@@ -4332,7 +3867,7 @@
       <c r="H149" s="4"/>
       <c r="I149" s="4"/>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
@@ -4343,7 +3878,7 @@
       <c r="H150" s="4"/>
       <c r="I150" s="4"/>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
@@ -4354,7 +3889,7 @@
       <c r="H151" s="4"/>
       <c r="I151" s="4"/>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
@@ -4365,7 +3900,7 @@
       <c r="H152" s="4"/>
       <c r="I152" s="4"/>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
@@ -4376,7 +3911,7 @@
       <c r="H153" s="4"/>
       <c r="I153" s="4"/>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
@@ -4387,7 +3922,7 @@
       <c r="H154" s="4"/>
       <c r="I154" s="4"/>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
@@ -4398,7 +3933,7 @@
       <c r="H155" s="4"/>
       <c r="I155" s="4"/>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
@@ -4409,7 +3944,7 @@
       <c r="H156" s="4"/>
       <c r="I156" s="4"/>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
@@ -4420,7 +3955,7 @@
       <c r="H157" s="4"/>
       <c r="I157" s="4"/>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
@@ -4431,7 +3966,7 @@
       <c r="H158" s="4"/>
       <c r="I158" s="4"/>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
@@ -4442,7 +3977,7 @@
       <c r="H159" s="4"/>
       <c r="I159" s="4"/>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
@@ -4453,7 +3988,7 @@
       <c r="H160" s="4"/>
       <c r="I160" s="4"/>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
@@ -4464,7 +3999,7 @@
       <c r="H161" s="4"/>
       <c r="I161" s="4"/>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
@@ -4475,7 +4010,7 @@
       <c r="H162" s="4"/>
       <c r="I162" s="4"/>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163" s="4"/>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
@@ -4486,7 +4021,7 @@
       <c r="H163" s="4"/>
       <c r="I163" s="4"/>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
@@ -4497,7 +4032,7 @@
       <c r="H164" s="4"/>
       <c r="I164" s="4"/>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165" s="4"/>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
@@ -4508,7 +4043,7 @@
       <c r="H165" s="4"/>
       <c r="I165" s="4"/>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
@@ -4519,7 +4054,7 @@
       <c r="H166" s="4"/>
       <c r="I166" s="4"/>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
@@ -4530,7 +4065,7 @@
       <c r="H167" s="4"/>
       <c r="I167" s="4"/>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
@@ -4541,7 +4076,7 @@
       <c r="H168" s="4"/>
       <c r="I168" s="4"/>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
@@ -4552,7 +4087,7 @@
       <c r="H169" s="4"/>
       <c r="I169" s="4"/>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
@@ -4563,7 +4098,7 @@
       <c r="H170" s="4"/>
       <c r="I170" s="4"/>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
@@ -4574,7 +4109,7 @@
       <c r="H171" s="4"/>
       <c r="I171" s="4"/>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
@@ -4585,7 +4120,7 @@
       <c r="H172" s="4"/>
       <c r="I172" s="4"/>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
@@ -4596,7 +4131,7 @@
       <c r="H173" s="4"/>
       <c r="I173" s="4"/>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
@@ -4607,7 +4142,7 @@
       <c r="H174" s="4"/>
       <c r="I174" s="4"/>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
@@ -4618,7 +4153,7 @@
       <c r="H175" s="4"/>
       <c r="I175" s="4"/>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
@@ -4629,7 +4164,7 @@
       <c r="H176" s="4"/>
       <c r="I176" s="4"/>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
@@ -4640,7 +4175,7 @@
       <c r="H177" s="4"/>
       <c r="I177" s="4"/>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
@@ -4651,7 +4186,7 @@
       <c r="H178" s="4"/>
       <c r="I178" s="4"/>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
@@ -4662,7 +4197,7 @@
       <c r="H179" s="4"/>
       <c r="I179" s="4"/>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
@@ -4673,7 +4208,7 @@
       <c r="H180" s="4"/>
       <c r="I180" s="4"/>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
@@ -4684,7 +4219,7 @@
       <c r="H181" s="4"/>
       <c r="I181" s="4"/>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
@@ -4695,7 +4230,7 @@
       <c r="H182" s="4"/>
       <c r="I182" s="4"/>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
@@ -4706,7 +4241,7 @@
       <c r="H183" s="4"/>
       <c r="I183" s="4"/>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
@@ -4717,7 +4252,7 @@
       <c r="H184" s="4"/>
       <c r="I184" s="4"/>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
@@ -4728,7 +4263,7 @@
       <c r="H185" s="4"/>
       <c r="I185" s="4"/>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
@@ -4739,7 +4274,7 @@
       <c r="H186" s="4"/>
       <c r="I186" s="4"/>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
@@ -4750,7 +4285,7 @@
       <c r="H187" s="4"/>
       <c r="I187" s="4"/>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
@@ -4761,7 +4296,7 @@
       <c r="H188" s="4"/>
       <c r="I188" s="4"/>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
@@ -4772,7 +4307,7 @@
       <c r="H189" s="4"/>
       <c r="I189" s="4"/>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
@@ -4783,7 +4318,7 @@
       <c r="H190" s="4"/>
       <c r="I190" s="4"/>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
@@ -4794,7 +4329,7 @@
       <c r="H191" s="4"/>
       <c r="I191" s="4"/>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
@@ -4805,7 +4340,7 @@
       <c r="H192" s="4"/>
       <c r="I192" s="4"/>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
@@ -4816,7 +4351,7 @@
       <c r="H193" s="4"/>
       <c r="I193" s="4"/>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
@@ -4827,7 +4362,7 @@
       <c r="H194" s="4"/>
       <c r="I194" s="4"/>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
@@ -4838,7 +4373,7 @@
       <c r="H195" s="4"/>
       <c r="I195" s="4"/>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
@@ -4849,7 +4384,7 @@
       <c r="H196" s="4"/>
       <c r="I196" s="4"/>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
@@ -4860,7 +4395,7 @@
       <c r="H197" s="4"/>
       <c r="I197" s="4"/>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
@@ -4871,7 +4406,7 @@
       <c r="H198" s="4"/>
       <c r="I198" s="4"/>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
@@ -4882,7 +4417,7 @@
       <c r="H199" s="4"/>
       <c r="I199" s="4"/>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
@@ -4893,7 +4428,7 @@
       <c r="H200" s="4"/>
       <c r="I200" s="4"/>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A201" s="4"/>
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
@@ -4904,7 +4439,7 @@
       <c r="H201" s="4"/>
       <c r="I201" s="4"/>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A202" s="4"/>
       <c r="B202" s="4"/>
       <c r="C202" s="4"/>
@@ -4915,7 +4450,7 @@
       <c r="H202" s="4"/>
       <c r="I202" s="4"/>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A203" s="4"/>
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
@@ -4926,7 +4461,7 @@
       <c r="H203" s="4"/>
       <c r="I203" s="4"/>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A204" s="4"/>
       <c r="B204" s="4"/>
       <c r="C204" s="4"/>
@@ -4937,7 +4472,7 @@
       <c r="H204" s="4"/>
       <c r="I204" s="4"/>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A205" s="4"/>
       <c r="B205" s="4"/>
       <c r="C205" s="4"/>
@@ -4948,7 +4483,7 @@
       <c r="H205" s="4"/>
       <c r="I205" s="4"/>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
       <c r="C206" s="4"/>
@@ -4959,7 +4494,7 @@
       <c r="H206" s="4"/>
       <c r="I206" s="4"/>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207" s="4"/>
       <c r="B207" s="4"/>
       <c r="C207" s="4"/>
@@ -4970,7 +4505,7 @@
       <c r="H207" s="4"/>
       <c r="I207" s="4"/>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A208" s="4"/>
       <c r="B208" s="4"/>
       <c r="C208" s="4"/>
@@ -4981,7 +4516,7 @@
       <c r="H208" s="4"/>
       <c r="I208" s="4"/>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209" s="4"/>
       <c r="B209" s="4"/>
       <c r="C209" s="4"/>
@@ -4992,7 +4527,7 @@
       <c r="H209" s="4"/>
       <c r="I209" s="4"/>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A210" s="4"/>
       <c r="B210" s="4"/>
       <c r="C210" s="4"/>
@@ -5003,7 +4538,7 @@
       <c r="H210" s="4"/>
       <c r="I210" s="4"/>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A211" s="4"/>
       <c r="B211" s="4"/>
       <c r="C211" s="4"/>
@@ -5014,7 +4549,7 @@
       <c r="H211" s="4"/>
       <c r="I211" s="4"/>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A212" s="4"/>
       <c r="B212" s="4"/>
       <c r="C212" s="4"/>
@@ -5025,7 +4560,7 @@
       <c r="H212" s="4"/>
       <c r="I212" s="4"/>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A213" s="4"/>
       <c r="B213" s="4"/>
       <c r="C213" s="4"/>
@@ -5036,7 +4571,7 @@
       <c r="H213" s="4"/>
       <c r="I213" s="4"/>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A214" s="4"/>
       <c r="B214" s="4"/>
       <c r="C214" s="4"/>
@@ -5047,7 +4582,7 @@
       <c r="H214" s="4"/>
       <c r="I214" s="4"/>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A215" s="4"/>
       <c r="B215" s="4"/>
       <c r="C215" s="4"/>
@@ -5058,7 +4593,7 @@
       <c r="H215" s="4"/>
       <c r="I215" s="4"/>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A216" s="4"/>
       <c r="B216" s="4"/>
       <c r="C216" s="4"/>
@@ -5069,7 +4604,7 @@
       <c r="H216" s="4"/>
       <c r="I216" s="4"/>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A217" s="4"/>
       <c r="B217" s="4"/>
       <c r="C217" s="4"/>
@@ -5080,7 +4615,7 @@
       <c r="H217" s="4"/>
       <c r="I217" s="4"/>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A218" s="4"/>
       <c r="B218" s="4"/>
       <c r="C218" s="4"/>
@@ -5091,7 +4626,7 @@
       <c r="H218" s="4"/>
       <c r="I218" s="4"/>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A219" s="4"/>
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
@@ -5102,7 +4637,7 @@
       <c r="H219" s="4"/>
       <c r="I219" s="4"/>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A220" s="4"/>
       <c r="B220" s="4"/>
       <c r="C220" s="4"/>
@@ -5113,7 +4648,7 @@
       <c r="H220" s="4"/>
       <c r="I220" s="4"/>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A221" s="4"/>
       <c r="B221" s="4"/>
       <c r="C221" s="4"/>
@@ -5124,7 +4659,7 @@
       <c r="H221" s="4"/>
       <c r="I221" s="4"/>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A222" s="4"/>
       <c r="B222" s="4"/>
       <c r="C222" s="4"/>
@@ -5135,7 +4670,7 @@
       <c r="H222" s="4"/>
       <c r="I222" s="4"/>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223" s="4"/>
       <c r="B223" s="4"/>
       <c r="C223" s="4"/>
@@ -5146,7 +4681,7 @@
       <c r="H223" s="4"/>
       <c r="I223" s="4"/>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A224" s="4"/>
       <c r="B224" s="4"/>
       <c r="C224" s="4"/>
@@ -5157,7 +4692,7 @@
       <c r="H224" s="4"/>
       <c r="I224" s="4"/>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A225" s="4"/>
       <c r="B225" s="4"/>
       <c r="C225" s="4"/>
@@ -5168,7 +4703,7 @@
       <c r="H225" s="4"/>
       <c r="I225" s="4"/>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A226" s="4"/>
       <c r="B226" s="4"/>
       <c r="C226" s="4"/>
@@ -5179,7 +4714,7 @@
       <c r="H226" s="4"/>
       <c r="I226" s="4"/>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A227" s="4"/>
       <c r="B227" s="4"/>
       <c r="C227" s="4"/>
@@ -5190,7 +4725,7 @@
       <c r="H227" s="4"/>
       <c r="I227" s="4"/>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A228" s="4"/>
       <c r="B228" s="4"/>
       <c r="C228" s="4"/>
@@ -5201,7 +4736,7 @@
       <c r="H228" s="4"/>
       <c r="I228" s="4"/>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A229" s="4"/>
       <c r="B229" s="4"/>
       <c r="C229" s="4"/>
@@ -5212,7 +4747,7 @@
       <c r="H229" s="4"/>
       <c r="I229" s="4"/>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A230" s="4"/>
       <c r="B230" s="4"/>
       <c r="C230" s="4"/>
@@ -5223,7 +4758,7 @@
       <c r="H230" s="4"/>
       <c r="I230" s="4"/>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A231" s="4"/>
       <c r="B231" s="4"/>
       <c r="C231" s="4"/>
@@ -5234,7 +4769,7 @@
       <c r="H231" s="4"/>
       <c r="I231" s="4"/>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A232" s="4"/>
       <c r="B232" s="4"/>
       <c r="C232" s="4"/>
@@ -5245,7 +4780,7 @@
       <c r="H232" s="4"/>
       <c r="I232" s="4"/>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A233" s="4"/>
       <c r="B233" s="4"/>
       <c r="C233" s="4"/>
@@ -5256,7 +4791,7 @@
       <c r="H233" s="4"/>
       <c r="I233" s="4"/>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A234" s="4"/>
       <c r="B234" s="4"/>
       <c r="C234" s="4"/>
@@ -5267,7 +4802,7 @@
       <c r="H234" s="4"/>
       <c r="I234" s="4"/>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A235" s="4"/>
       <c r="B235" s="4"/>
       <c r="C235" s="4"/>
@@ -5278,7 +4813,7 @@
       <c r="H235" s="4"/>
       <c r="I235" s="4"/>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A236" s="4"/>
       <c r="B236" s="4"/>
       <c r="C236" s="4"/>
@@ -5289,7 +4824,7 @@
       <c r="H236" s="4"/>
       <c r="I236" s="4"/>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A237" s="4"/>
       <c r="B237" s="4"/>
       <c r="C237" s="4"/>
@@ -5300,7 +4835,7 @@
       <c r="H237" s="4"/>
       <c r="I237" s="4"/>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A238" s="4"/>
       <c r="B238" s="4"/>
       <c r="C238" s="4"/>
@@ -5311,7 +4846,7 @@
       <c r="H238" s="4"/>
       <c r="I238" s="4"/>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A239" s="4"/>
       <c r="B239" s="4"/>
       <c r="C239" s="4"/>
@@ -5322,7 +4857,7 @@
       <c r="H239" s="4"/>
       <c r="I239" s="4"/>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A240" s="4"/>
       <c r="B240" s="4"/>
       <c r="C240" s="4"/>
@@ -5333,7 +4868,7 @@
       <c r="H240" s="4"/>
       <c r="I240" s="4"/>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A241" s="4"/>
       <c r="B241" s="4"/>
       <c r="C241" s="4"/>
@@ -5344,7 +4879,7 @@
       <c r="H241" s="4"/>
       <c r="I241" s="4"/>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A242" s="4"/>
       <c r="B242" s="4"/>
       <c r="C242" s="4"/>
@@ -5355,7 +4890,7 @@
       <c r="H242" s="4"/>
       <c r="I242" s="4"/>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A243" s="4"/>
       <c r="B243" s="4"/>
       <c r="C243" s="4"/>
@@ -5366,7 +4901,7 @@
       <c r="H243" s="4"/>
       <c r="I243" s="4"/>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A244" s="4"/>
       <c r="B244" s="4"/>
       <c r="C244" s="4"/>
@@ -5377,7 +4912,7 @@
       <c r="H244" s="4"/>
       <c r="I244" s="4"/>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A245" s="4"/>
       <c r="B245" s="4"/>
       <c r="C245" s="4"/>
@@ -5388,7 +4923,7 @@
       <c r="H245" s="4"/>
       <c r="I245" s="4"/>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A246" s="4"/>
       <c r="B246" s="4"/>
       <c r="C246" s="4"/>
@@ -5399,7 +4934,7 @@
       <c r="H246" s="4"/>
       <c r="I246" s="4"/>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A247" s="4"/>
       <c r="B247" s="4"/>
       <c r="C247" s="4"/>
@@ -5410,7 +4945,7 @@
       <c r="H247" s="4"/>
       <c r="I247" s="4"/>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A248" s="4"/>
       <c r="B248" s="4"/>
       <c r="C248" s="4"/>
@@ -5421,7 +4956,7 @@
       <c r="H248" s="4"/>
       <c r="I248" s="4"/>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A249" s="4"/>
       <c r="B249" s="4"/>
       <c r="C249" s="4"/>
@@ -5432,7 +4967,7 @@
       <c r="H249" s="4"/>
       <c r="I249" s="4"/>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A250" s="4"/>
       <c r="B250" s="4"/>
       <c r="C250" s="4"/>
@@ -5443,7 +4978,7 @@
       <c r="H250" s="4"/>
       <c r="I250" s="4"/>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A251" s="4"/>
       <c r="B251" s="4"/>
       <c r="C251" s="4"/>
@@ -5454,7 +4989,7 @@
       <c r="H251" s="4"/>
       <c r="I251" s="4"/>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A252" s="4"/>
       <c r="B252" s="4"/>
       <c r="C252" s="4"/>
@@ -5465,7 +5000,7 @@
       <c r="H252" s="4"/>
       <c r="I252" s="4"/>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A253" s="4"/>
       <c r="B253" s="4"/>
       <c r="C253" s="4"/>
@@ -5476,7 +5011,7 @@
       <c r="H253" s="4"/>
       <c r="I253" s="4"/>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A254" s="4"/>
       <c r="B254" s="4"/>
       <c r="C254" s="4"/>
@@ -5487,7 +5022,7 @@
       <c r="H254" s="4"/>
       <c r="I254" s="4"/>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A255" s="4"/>
       <c r="B255" s="4"/>
       <c r="C255" s="4"/>
@@ -5498,7 +5033,7 @@
       <c r="H255" s="4"/>
       <c r="I255" s="4"/>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A256" s="4"/>
       <c r="B256" s="4"/>
       <c r="C256" s="4"/>
@@ -5509,7 +5044,7 @@
       <c r="H256" s="4"/>
       <c r="I256" s="4"/>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A257" s="4"/>
       <c r="B257" s="4"/>
       <c r="C257" s="4"/>
@@ -5520,7 +5055,7 @@
       <c r="H257" s="4"/>
       <c r="I257" s="4"/>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A258" s="4"/>
       <c r="B258" s="4"/>
       <c r="C258" s="4"/>
@@ -5531,7 +5066,7 @@
       <c r="H258" s="4"/>
       <c r="I258" s="4"/>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A259" s="4"/>
       <c r="B259" s="4"/>
       <c r="C259" s="4"/>
@@ -5542,7 +5077,7 @@
       <c r="H259" s="4"/>
       <c r="I259" s="4"/>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A260" s="4"/>
       <c r="B260" s="4"/>
       <c r="C260" s="4"/>
@@ -5553,7 +5088,7 @@
       <c r="H260" s="4"/>
       <c r="I260" s="4"/>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A261" s="4"/>
       <c r="B261" s="4"/>
       <c r="C261" s="4"/>
@@ -5564,7 +5099,7 @@
       <c r="H261" s="4"/>
       <c r="I261" s="4"/>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A262" s="4"/>
       <c r="B262" s="4"/>
       <c r="C262" s="4"/>
@@ -5575,7 +5110,7 @@
       <c r="H262" s="4"/>
       <c r="I262" s="4"/>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A263" s="4"/>
       <c r="B263" s="4"/>
       <c r="C263" s="4"/>
@@ -5586,7 +5121,7 @@
       <c r="H263" s="4"/>
       <c r="I263" s="4"/>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A264" s="4"/>
       <c r="B264" s="4"/>
       <c r="C264" s="4"/>
@@ -5597,7 +5132,7 @@
       <c r="H264" s="4"/>
       <c r="I264" s="4"/>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A265" s="4"/>
       <c r="B265" s="4"/>
       <c r="C265" s="4"/>
@@ -5608,7 +5143,7 @@
       <c r="H265" s="4"/>
       <c r="I265" s="4"/>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A266" s="4"/>
       <c r="B266" s="4"/>
       <c r="C266" s="4"/>
@@ -5619,7 +5154,7 @@
       <c r="H266" s="4"/>
       <c r="I266" s="4"/>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A267" s="4"/>
       <c r="B267" s="4"/>
       <c r="C267" s="4"/>
@@ -5630,7 +5165,7 @@
       <c r="H267" s="4"/>
       <c r="I267" s="4"/>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A268" s="4"/>
       <c r="B268" s="4"/>
       <c r="C268" s="4"/>
@@ -5641,7 +5176,7 @@
       <c r="H268" s="4"/>
       <c r="I268" s="4"/>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A269" s="4"/>
       <c r="B269" s="4"/>
       <c r="C269" s="4"/>
@@ -5652,7 +5187,7 @@
       <c r="H269" s="4"/>
       <c r="I269" s="4"/>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A270" s="4"/>
       <c r="B270" s="4"/>
       <c r="C270" s="4"/>
@@ -5663,7 +5198,7 @@
       <c r="H270" s="4"/>
       <c r="I270" s="4"/>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A271" s="4"/>
       <c r="B271" s="4"/>
       <c r="C271" s="4"/>
@@ -5674,7 +5209,7 @@
       <c r="H271" s="4"/>
       <c r="I271" s="4"/>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A272" s="4"/>
       <c r="B272" s="4"/>
       <c r="C272" s="4"/>
@@ -5685,7 +5220,7 @@
       <c r="H272" s="4"/>
       <c r="I272" s="4"/>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A273" s="4"/>
       <c r="B273" s="4"/>
       <c r="C273" s="4"/>
@@ -5696,7 +5231,7 @@
       <c r="H273" s="4"/>
       <c r="I273" s="4"/>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A274" s="4"/>
       <c r="B274" s="4"/>
       <c r="C274" s="4"/>
@@ -5707,7 +5242,7 @@
       <c r="H274" s="4"/>
       <c r="I274" s="4"/>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A275" s="4"/>
       <c r="B275" s="4"/>
       <c r="C275" s="4"/>
@@ -5718,7 +5253,7 @@
       <c r="H275" s="4"/>
       <c r="I275" s="4"/>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A276" s="4"/>
       <c r="B276" s="4"/>
       <c r="C276" s="4"/>
@@ -5729,7 +5264,7 @@
       <c r="H276" s="4"/>
       <c r="I276" s="4"/>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A277" s="4"/>
       <c r="B277" s="4"/>
       <c r="C277" s="4"/>
@@ -5740,7 +5275,7 @@
       <c r="H277" s="4"/>
       <c r="I277" s="4"/>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A278" s="4"/>
       <c r="B278" s="4"/>
       <c r="C278" s="4"/>
@@ -5751,7 +5286,7 @@
       <c r="H278" s="4"/>
       <c r="I278" s="4"/>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A279" s="4"/>
       <c r="B279" s="4"/>
       <c r="C279" s="4"/>
@@ -5762,7 +5297,7 @@
       <c r="H279" s="4"/>
       <c r="I279" s="4"/>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A280" s="4"/>
       <c r="B280" s="4"/>
       <c r="C280" s="4"/>
@@ -5773,7 +5308,7 @@
       <c r="H280" s="4"/>
       <c r="I280" s="4"/>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A281" s="4"/>
       <c r="B281" s="4"/>
       <c r="C281" s="4"/>
@@ -5784,7 +5319,7 @@
       <c r="H281" s="4"/>
       <c r="I281" s="4"/>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A282" s="4"/>
       <c r="B282" s="4"/>
       <c r="C282" s="4"/>
@@ -5795,7 +5330,7 @@
       <c r="H282" s="4"/>
       <c r="I282" s="4"/>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A283" s="4"/>
       <c r="B283" s="4"/>
       <c r="C283" s="4"/>
@@ -5806,7 +5341,7 @@
       <c r="H283" s="4"/>
       <c r="I283" s="4"/>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A284" s="4"/>
       <c r="B284" s="4"/>
       <c r="C284" s="4"/>
@@ -5817,7 +5352,7 @@
       <c r="H284" s="4"/>
       <c r="I284" s="4"/>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A285" s="4"/>
       <c r="B285" s="4"/>
       <c r="C285" s="4"/>
@@ -5828,7 +5363,7 @@
       <c r="H285" s="4"/>
       <c r="I285" s="4"/>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A286" s="4"/>
       <c r="B286" s="4"/>
       <c r="C286" s="4"/>
@@ -5839,7 +5374,7 @@
       <c r="H286" s="4"/>
       <c r="I286" s="4"/>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A287" s="4"/>
       <c r="B287" s="4"/>
       <c r="C287" s="4"/>
@@ -5850,7 +5385,7 @@
       <c r="H287" s="4"/>
       <c r="I287" s="4"/>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A288" s="4"/>
       <c r="B288" s="4"/>
       <c r="C288" s="4"/>
@@ -5861,7 +5396,7 @@
       <c r="H288" s="4"/>
       <c r="I288" s="4"/>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A289" s="4"/>
       <c r="B289" s="4"/>
       <c r="C289" s="4"/>
@@ -5872,7 +5407,7 @@
       <c r="H289" s="4"/>
       <c r="I289" s="4"/>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A290" s="4"/>
       <c r="B290" s="4"/>
       <c r="C290" s="4"/>
@@ -5883,7 +5418,7 @@
       <c r="H290" s="4"/>
       <c r="I290" s="4"/>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A291" s="4"/>
       <c r="B291" s="4"/>
       <c r="C291" s="4"/>
@@ -5894,7 +5429,7 @@
       <c r="H291" s="4"/>
       <c r="I291" s="4"/>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A292" s="4"/>
       <c r="B292" s="4"/>
       <c r="C292" s="4"/>
@@ -5905,7 +5440,7 @@
       <c r="H292" s="4"/>
       <c r="I292" s="4"/>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A293" s="4"/>
       <c r="B293" s="4"/>
       <c r="C293" s="4"/>
@@ -5916,7 +5451,7 @@
       <c r="H293" s="4"/>
       <c r="I293" s="4"/>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A294" s="4"/>
       <c r="B294" s="4"/>
       <c r="C294" s="4"/>
@@ -5927,7 +5462,7 @@
       <c r="H294" s="4"/>
       <c r="I294" s="4"/>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A295" s="4"/>
       <c r="B295" s="4"/>
       <c r="C295" s="4"/>
@@ -5938,7 +5473,7 @@
       <c r="H295" s="4"/>
       <c r="I295" s="4"/>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A296" s="4"/>
       <c r="B296" s="4"/>
       <c r="C296" s="4"/>
@@ -5949,7 +5484,7 @@
       <c r="H296" s="4"/>
       <c r="I296" s="4"/>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A297" s="4"/>
       <c r="B297" s="4"/>
       <c r="C297" s="4"/>
@@ -5960,7 +5495,7 @@
       <c r="H297" s="4"/>
       <c r="I297" s="4"/>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A298" s="4"/>
       <c r="B298" s="4"/>
       <c r="C298" s="4"/>
@@ -5971,7 +5506,7 @@
       <c r="H298" s="4"/>
       <c r="I298" s="4"/>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A299" s="4"/>
       <c r="B299" s="4"/>
       <c r="C299" s="4"/>
@@ -5982,7 +5517,7 @@
       <c r="H299" s="4"/>
       <c r="I299" s="4"/>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A300" s="4"/>
       <c r="B300" s="4"/>
       <c r="C300" s="4"/>
@@ -5993,7 +5528,7 @@
       <c r="H300" s="4"/>
       <c r="I300" s="4"/>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A301" s="4"/>
       <c r="B301" s="4"/>
       <c r="C301" s="4"/>
@@ -6004,7 +5539,7 @@
       <c r="H301" s="4"/>
       <c r="I301" s="4"/>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A302" s="4"/>
       <c r="B302" s="4"/>
       <c r="C302" s="4"/>
@@ -6015,7 +5550,7 @@
       <c r="H302" s="4"/>
       <c r="I302" s="4"/>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A303" s="4"/>
       <c r="B303" s="4"/>
       <c r="C303" s="4"/>
@@ -6026,7 +5561,7 @@
       <c r="H303" s="4"/>
       <c r="I303" s="4"/>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A304" s="4"/>
       <c r="B304" s="4"/>
       <c r="C304" s="4"/>
@@ -6037,7 +5572,7 @@
       <c r="H304" s="4"/>
       <c r="I304" s="4"/>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A305" s="4"/>
       <c r="B305" s="4"/>
       <c r="C305" s="4"/>
@@ -6048,7 +5583,7 @@
       <c r="H305" s="4"/>
       <c r="I305" s="4"/>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A306" s="4"/>
       <c r="B306" s="4"/>
       <c r="C306" s="4"/>
@@ -6059,7 +5594,7 @@
       <c r="H306" s="4"/>
       <c r="I306" s="4"/>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A307" s="4"/>
       <c r="B307" s="4"/>
       <c r="C307" s="4"/>
@@ -6070,7 +5605,7 @@
       <c r="H307" s="4"/>
       <c r="I307" s="4"/>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A308" s="4"/>
       <c r="B308" s="4"/>
       <c r="C308" s="4"/>
@@ -6081,7 +5616,7 @@
       <c r="H308" s="4"/>
       <c r="I308" s="4"/>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A309" s="4"/>
       <c r="B309" s="4"/>
       <c r="C309" s="4"/>
@@ -6092,7 +5627,7 @@
       <c r="H309" s="4"/>
       <c r="I309" s="4"/>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A310" s="4"/>
       <c r="B310" s="4"/>
       <c r="C310" s="4"/>
@@ -6103,7 +5638,7 @@
       <c r="H310" s="4"/>
       <c r="I310" s="4"/>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A311" s="4"/>
       <c r="B311" s="4"/>
       <c r="C311" s="4"/>
@@ -6114,7 +5649,7 @@
       <c r="H311" s="4"/>
       <c r="I311" s="4"/>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A312" s="4"/>
       <c r="B312" s="4"/>
       <c r="C312" s="4"/>
@@ -6125,7 +5660,7 @@
       <c r="H312" s="4"/>
       <c r="I312" s="4"/>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A313" s="4"/>
       <c r="B313" s="4"/>
       <c r="C313" s="4"/>
@@ -6136,7 +5671,7 @@
       <c r="H313" s="4"/>
       <c r="I313" s="4"/>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A314" s="4"/>
       <c r="B314" s="4"/>
       <c r="C314" s="4"/>
@@ -6147,7 +5682,7 @@
       <c r="H314" s="4"/>
       <c r="I314" s="4"/>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A315" s="4"/>
       <c r="B315" s="4"/>
       <c r="C315" s="4"/>
@@ -6158,7 +5693,7 @@
       <c r="H315" s="4"/>
       <c r="I315" s="4"/>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A316" s="4"/>
       <c r="B316" s="4"/>
       <c r="C316" s="4"/>
@@ -6169,7 +5704,7 @@
       <c r="H316" s="4"/>
       <c r="I316" s="4"/>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A317" s="4"/>
       <c r="B317" s="4"/>
       <c r="C317" s="4"/>
@@ -6180,7 +5715,7 @@
       <c r="H317" s="4"/>
       <c r="I317" s="4"/>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A318" s="4"/>
       <c r="B318" s="4"/>
       <c r="C318" s="4"/>
@@ -6191,7 +5726,7 @@
       <c r="H318" s="4"/>
       <c r="I318" s="4"/>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A319" s="4"/>
       <c r="B319" s="4"/>
       <c r="C319" s="4"/>
@@ -6202,7 +5737,7 @@
       <c r="H319" s="4"/>
       <c r="I319" s="4"/>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A320" s="4"/>
       <c r="B320" s="4"/>
       <c r="C320" s="4"/>
@@ -6213,7 +5748,7 @@
       <c r="H320" s="4"/>
       <c r="I320" s="4"/>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A321" s="4"/>
       <c r="B321" s="4"/>
       <c r="C321" s="4"/>
@@ -6224,7 +5759,7 @@
       <c r="H321" s="4"/>
       <c r="I321" s="4"/>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A322" s="4"/>
       <c r="B322" s="4"/>
       <c r="C322" s="4"/>
@@ -6235,7 +5770,7 @@
       <c r="H322" s="4"/>
       <c r="I322" s="4"/>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A323" s="4"/>
       <c r="B323" s="4"/>
       <c r="C323" s="4"/>
@@ -6246,7 +5781,7 @@
       <c r="H323" s="4"/>
       <c r="I323" s="4"/>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A324" s="4"/>
       <c r="B324" s="4"/>
       <c r="C324" s="4"/>
@@ -6257,7 +5792,7 @@
       <c r="H324" s="4"/>
       <c r="I324" s="4"/>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A325" s="4"/>
       <c r="B325" s="4"/>
       <c r="C325" s="4"/>
@@ -6268,7 +5803,7 @@
       <c r="H325" s="4"/>
       <c r="I325" s="4"/>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A326" s="4"/>
       <c r="B326" s="4"/>
       <c r="C326" s="4"/>
@@ -6279,7 +5814,7 @@
       <c r="H326" s="4"/>
       <c r="I326" s="4"/>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A327" s="4"/>
       <c r="B327" s="4"/>
       <c r="C327" s="4"/>
@@ -6290,7 +5825,7 @@
       <c r="H327" s="4"/>
       <c r="I327" s="4"/>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A328" s="4"/>
       <c r="B328" s="4"/>
       <c r="C328" s="4"/>
@@ -6301,7 +5836,7 @@
       <c r="H328" s="4"/>
       <c r="I328" s="4"/>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A329" s="4"/>
       <c r="B329" s="4"/>
       <c r="C329" s="4"/>
@@ -6312,7 +5847,7 @@
       <c r="H329" s="4"/>
       <c r="I329" s="4"/>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A330" s="4"/>
       <c r="B330" s="4"/>
       <c r="C330" s="4"/>
@@ -6323,7 +5858,7 @@
       <c r="H330" s="4"/>
       <c r="I330" s="4"/>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A331" s="4"/>
       <c r="B331" s="4"/>
       <c r="C331" s="4"/>
@@ -6334,7 +5869,7 @@
       <c r="H331" s="4"/>
       <c r="I331" s="4"/>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A332" s="4"/>
       <c r="B332" s="4"/>
       <c r="C332" s="4"/>
@@ -6345,7 +5880,7 @@
       <c r="H332" s="4"/>
       <c r="I332" s="4"/>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A333" s="4"/>
       <c r="B333" s="4"/>
       <c r="C333" s="4"/>
@@ -6356,7 +5891,7 @@
       <c r="H333" s="4"/>
       <c r="I333" s="4"/>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A334" s="4"/>
       <c r="B334" s="4"/>
       <c r="C334" s="4"/>
@@ -6367,7 +5902,7 @@
       <c r="H334" s="4"/>
       <c r="I334" s="4"/>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A335" s="4"/>
       <c r="B335" s="4"/>
       <c r="C335" s="4"/>
@@ -6378,7 +5913,7 @@
       <c r="H335" s="4"/>
       <c r="I335" s="4"/>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A336" s="4"/>
       <c r="B336" s="4"/>
       <c r="C336" s="4"/>
@@ -6389,7 +5924,7 @@
       <c r="H336" s="4"/>
       <c r="I336" s="4"/>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A337" s="4"/>
       <c r="B337" s="4"/>
       <c r="C337" s="4"/>
@@ -6400,7 +5935,7 @@
       <c r="H337" s="4"/>
       <c r="I337" s="4"/>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A338" s="4"/>
       <c r="B338" s="4"/>
       <c r="C338" s="4"/>
@@ -6411,7 +5946,7 @@
       <c r="H338" s="4"/>
       <c r="I338" s="4"/>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A339" s="4"/>
       <c r="B339" s="4"/>
       <c r="C339" s="4"/>
@@ -6422,7 +5957,7 @@
       <c r="H339" s="4"/>
       <c r="I339" s="4"/>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A340" s="4"/>
       <c r="B340" s="4"/>
       <c r="C340" s="4"/>
@@ -6433,7 +5968,7 @@
       <c r="H340" s="4"/>
       <c r="I340" s="4"/>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A341" s="4"/>
       <c r="B341" s="4"/>
       <c r="C341" s="4"/>
@@ -6444,7 +5979,7 @@
       <c r="H341" s="4"/>
       <c r="I341" s="4"/>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A342" s="4"/>
       <c r="B342" s="4"/>
       <c r="C342" s="4"/>
@@ -6455,7 +5990,7 @@
       <c r="H342" s="4"/>
       <c r="I342" s="4"/>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A343" s="4"/>
       <c r="B343" s="4"/>
       <c r="C343" s="4"/>
@@ -6466,7 +6001,7 @@
       <c r="H343" s="4"/>
       <c r="I343" s="4"/>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A344" s="4"/>
       <c r="B344" s="4"/>
       <c r="C344" s="4"/>
@@ -6477,7 +6012,7 @@
       <c r="H344" s="4"/>
       <c r="I344" s="4"/>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A345" s="4"/>
       <c r="B345" s="4"/>
       <c r="C345" s="4"/>
@@ -6488,7 +6023,7 @@
       <c r="H345" s="4"/>
       <c r="I345" s="4"/>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A346" s="4"/>
       <c r="B346" s="4"/>
       <c r="C346" s="4"/>
@@ -6499,7 +6034,7 @@
       <c r="H346" s="4"/>
       <c r="I346" s="4"/>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A347" s="4"/>
       <c r="B347" s="4"/>
       <c r="C347" s="4"/>
@@ -6510,7 +6045,7 @@
       <c r="H347" s="4"/>
       <c r="I347" s="4"/>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A348" s="4"/>
       <c r="B348" s="4"/>
       <c r="C348" s="4"/>
@@ -6521,7 +6056,7 @@
       <c r="H348" s="4"/>
       <c r="I348" s="4"/>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A349" s="4"/>
       <c r="B349" s="4"/>
       <c r="C349" s="4"/>
@@ -6532,7 +6067,7 @@
       <c r="H349" s="4"/>
       <c r="I349" s="4"/>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A350" s="4"/>
       <c r="B350" s="4"/>
       <c r="C350" s="4"/>
@@ -6543,7 +6078,7 @@
       <c r="H350" s="4"/>
       <c r="I350" s="4"/>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A351" s="4"/>
       <c r="B351" s="4"/>
       <c r="C351" s="4"/>
@@ -6554,7 +6089,7 @@
       <c r="H351" s="4"/>
       <c r="I351" s="4"/>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A352" s="4"/>
       <c r="B352" s="4"/>
       <c r="C352" s="4"/>
@@ -6565,7 +6100,7 @@
       <c r="H352" s="4"/>
       <c r="I352" s="4"/>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A353" s="4"/>
       <c r="B353" s="4"/>
       <c r="C353" s="4"/>
@@ -6576,7 +6111,7 @@
       <c r="H353" s="4"/>
       <c r="I353" s="4"/>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A354" s="4"/>
       <c r="B354" s="4"/>
       <c r="C354" s="4"/>
@@ -6587,7 +6122,7 @@
       <c r="H354" s="4"/>
       <c r="I354" s="4"/>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A355" s="4"/>
       <c r="B355" s="4"/>
       <c r="C355" s="4"/>
@@ -6598,7 +6133,7 @@
       <c r="H355" s="4"/>
       <c r="I355" s="4"/>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A356" s="4"/>
       <c r="B356" s="4"/>
       <c r="C356" s="4"/>
@@ -6609,7 +6144,7 @@
       <c r="H356" s="4"/>
       <c r="I356" s="4"/>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A357" s="4"/>
       <c r="B357" s="4"/>
       <c r="C357" s="4"/>
@@ -6620,7 +6155,7 @@
       <c r="H357" s="4"/>
       <c r="I357" s="4"/>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A358" s="4"/>
       <c r="B358" s="4"/>
       <c r="C358" s="4"/>
@@ -6631,7 +6166,7 @@
       <c r="H358" s="4"/>
       <c r="I358" s="4"/>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A359" s="4"/>
       <c r="B359" s="4"/>
       <c r="C359" s="4"/>
@@ -6642,7 +6177,7 @@
       <c r="H359" s="4"/>
       <c r="I359" s="4"/>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A360" s="4"/>
       <c r="B360" s="4"/>
       <c r="C360" s="4"/>
@@ -6653,7 +6188,7 @@
       <c r="H360" s="4"/>
       <c r="I360" s="4"/>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A361" s="4"/>
       <c r="B361" s="4"/>
       <c r="C361" s="4"/>
@@ -6664,7 +6199,7 @@
       <c r="H361" s="4"/>
       <c r="I361" s="4"/>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A362" s="4"/>
       <c r="B362" s="4"/>
       <c r="C362" s="4"/>
@@ -6675,7 +6210,7 @@
       <c r="H362" s="4"/>
       <c r="I362" s="4"/>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A363" s="4"/>
       <c r="B363" s="4"/>
       <c r="C363" s="4"/>
@@ -6686,7 +6221,7 @@
       <c r="H363" s="4"/>
       <c r="I363" s="4"/>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A364" s="4"/>
       <c r="B364" s="4"/>
       <c r="C364" s="4"/>
@@ -6697,7 +6232,7 @@
       <c r="H364" s="4"/>
       <c r="I364" s="4"/>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A365" s="4"/>
       <c r="B365" s="4"/>
       <c r="C365" s="4"/>
@@ -6708,7 +6243,7 @@
       <c r="H365" s="4"/>
       <c r="I365" s="4"/>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A366" s="4"/>
       <c r="B366" s="4"/>
       <c r="C366" s="4"/>
@@ -6719,7 +6254,7 @@
       <c r="H366" s="4"/>
       <c r="I366" s="4"/>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A367" s="4"/>
       <c r="B367" s="4"/>
       <c r="C367" s="4"/>
@@ -6730,7 +6265,7 @@
       <c r="H367" s="4"/>
       <c r="I367" s="4"/>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A368" s="4"/>
       <c r="B368" s="4"/>
       <c r="C368" s="4"/>
@@ -6741,7 +6276,7 @@
       <c r="H368" s="4"/>
       <c r="I368" s="4"/>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A369" s="4"/>
       <c r="B369" s="4"/>
       <c r="C369" s="4"/>
@@ -6752,7 +6287,7 @@
       <c r="H369" s="4"/>
       <c r="I369" s="4"/>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A370" s="4"/>
       <c r="B370" s="4"/>
       <c r="C370" s="4"/>
@@ -6763,7 +6298,7 @@
       <c r="H370" s="4"/>
       <c r="I370" s="4"/>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A371" s="4"/>
       <c r="B371" s="4"/>
       <c r="C371" s="4"/>
@@ -6774,7 +6309,7 @@
       <c r="H371" s="4"/>
       <c r="I371" s="4"/>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A372" s="4"/>
       <c r="B372" s="4"/>
       <c r="C372" s="4"/>
@@ -6785,7 +6320,7 @@
       <c r="H372" s="4"/>
       <c r="I372" s="4"/>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A373" s="4"/>
       <c r="B373" s="4"/>
       <c r="C373" s="4"/>
@@ -6796,7 +6331,7 @@
       <c r="H373" s="4"/>
       <c r="I373" s="4"/>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A374" s="4"/>
       <c r="B374" s="4"/>
       <c r="C374" s="4"/>
@@ -6807,7 +6342,7 @@
       <c r="H374" s="4"/>
       <c r="I374" s="4"/>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A375" s="4"/>
       <c r="B375" s="4"/>
       <c r="C375" s="4"/>
@@ -6818,7 +6353,7 @@
       <c r="H375" s="4"/>
       <c r="I375" s="4"/>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A376" s="4"/>
       <c r="B376" s="4"/>
       <c r="C376" s="4"/>
@@ -6829,7 +6364,7 @@
       <c r="H376" s="4"/>
       <c r="I376" s="4"/>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A377" s="4"/>
       <c r="B377" s="4"/>
       <c r="C377" s="4"/>
@@ -6840,7 +6375,7 @@
       <c r="H377" s="4"/>
       <c r="I377" s="4"/>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A378" s="4"/>
       <c r="B378" s="4"/>
       <c r="C378" s="4"/>
@@ -6851,7 +6386,7 @@
       <c r="H378" s="4"/>
       <c r="I378" s="4"/>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A379" s="4"/>
       <c r="B379" s="4"/>
       <c r="C379" s="4"/>
@@ -6862,7 +6397,7 @@
       <c r="H379" s="4"/>
       <c r="I379" s="4"/>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A380" s="4"/>
       <c r="B380" s="4"/>
       <c r="C380" s="4"/>
@@ -6873,7 +6408,7 @@
       <c r="H380" s="4"/>
       <c r="I380" s="4"/>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A381" s="4"/>
       <c r="B381" s="4"/>
       <c r="C381" s="4"/>
@@ -6884,7 +6419,7 @@
       <c r="H381" s="4"/>
       <c r="I381" s="4"/>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A382" s="4"/>
       <c r="B382" s="4"/>
       <c r="C382" s="4"/>
@@ -6895,7 +6430,7 @@
       <c r="H382" s="4"/>
       <c r="I382" s="4"/>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A383" s="4"/>
       <c r="B383" s="4"/>
       <c r="C383" s="4"/>
@@ -6906,7 +6441,7 @@
       <c r="H383" s="4"/>
       <c r="I383" s="4"/>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A384" s="4"/>
       <c r="B384" s="4"/>
       <c r="C384" s="4"/>
@@ -6917,7 +6452,7 @@
       <c r="H384" s="4"/>
       <c r="I384" s="4"/>
     </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A385" s="4"/>
       <c r="B385" s="4"/>
       <c r="C385" s="4"/>
@@ -6928,7 +6463,7 @@
       <c r="H385" s="4"/>
       <c r="I385" s="4"/>
     </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A386" s="4"/>
       <c r="B386" s="4"/>
       <c r="C386" s="4"/>
@@ -6939,7 +6474,7 @@
       <c r="H386" s="4"/>
       <c r="I386" s="4"/>
     </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A387" s="4"/>
       <c r="B387" s="4"/>
       <c r="C387" s="4"/>
@@ -6950,7 +6485,7 @@
       <c r="H387" s="4"/>
       <c r="I387" s="4"/>
     </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A388" s="4"/>
       <c r="B388" s="4"/>
       <c r="C388" s="4"/>
@@ -6961,7 +6496,7 @@
       <c r="H388" s="4"/>
       <c r="I388" s="4"/>
     </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A389" s="4"/>
       <c r="B389" s="4"/>
       <c r="C389" s="4"/>
@@ -6972,7 +6507,7 @@
       <c r="H389" s="4"/>
       <c r="I389" s="4"/>
     </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A390" s="4"/>
       <c r="B390" s="4"/>
       <c r="C390" s="4"/>
@@ -6983,7 +6518,7 @@
       <c r="H390" s="4"/>
       <c r="I390" s="4"/>
     </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A391" s="4"/>
       <c r="B391" s="4"/>
       <c r="C391" s="4"/>
@@ -6994,7 +6529,7 @@
       <c r="H391" s="4"/>
       <c r="I391" s="4"/>
     </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A392" s="4"/>
       <c r="B392" s="4"/>
       <c r="C392" s="4"/>
@@ -7005,7 +6540,7 @@
       <c r="H392" s="4"/>
       <c r="I392" s="4"/>
     </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A393" s="4"/>
       <c r="B393" s="4"/>
       <c r="C393" s="4"/>
@@ -7016,7 +6551,7 @@
       <c r="H393" s="4"/>
       <c r="I393" s="4"/>
     </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A394" s="4"/>
       <c r="B394" s="4"/>
       <c r="C394" s="4"/>
@@ -7027,7 +6562,7 @@
       <c r="H394" s="4"/>
       <c r="I394" s="4"/>
     </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A395" s="4"/>
       <c r="B395" s="4"/>
       <c r="C395" s="4"/>
@@ -7038,7 +6573,7 @@
       <c r="H395" s="4"/>
       <c r="I395" s="4"/>
     </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A396" s="4"/>
       <c r="B396" s="4"/>
       <c r="C396" s="4"/>
@@ -7049,7 +6584,7 @@
       <c r="H396" s="4"/>
       <c r="I396" s="4"/>
     </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A397" s="4"/>
       <c r="B397" s="4"/>
       <c r="C397" s="4"/>
@@ -7060,7 +6595,7 @@
       <c r="H397" s="4"/>
       <c r="I397" s="4"/>
     </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A398" s="4"/>
       <c r="B398" s="4"/>
       <c r="C398" s="4"/>
@@ -7071,7 +6606,7 @@
       <c r="H398" s="4"/>
       <c r="I398" s="4"/>
     </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A399" s="4"/>
       <c r="B399" s="4"/>
       <c r="C399" s="4"/>
@@ -7082,7 +6617,7 @@
       <c r="H399" s="4"/>
       <c r="I399" s="4"/>
     </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A400" s="4"/>
       <c r="B400" s="4"/>
       <c r="C400" s="4"/>
@@ -7093,7 +6628,7 @@
       <c r="H400" s="4"/>
       <c r="I400" s="4"/>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A401" s="4"/>
       <c r="B401" s="4"/>
       <c r="C401" s="4"/>
@@ -7104,7 +6639,7 @@
       <c r="H401" s="4"/>
       <c r="I401" s="4"/>
     </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A402" s="4"/>
       <c r="B402" s="4"/>
       <c r="C402" s="4"/>
@@ -7115,7 +6650,7 @@
       <c r="H402" s="4"/>
       <c r="I402" s="4"/>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A403" s="4"/>
       <c r="B403" s="4"/>
       <c r="C403" s="4"/>
@@ -7126,7 +6661,7 @@
       <c r="H403" s="4"/>
       <c r="I403" s="4"/>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A404" s="4"/>
       <c r="B404" s="4"/>
       <c r="C404" s="4"/>
@@ -7137,7 +6672,7 @@
       <c r="H404" s="4"/>
       <c r="I404" s="4"/>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A405" s="4"/>
       <c r="B405" s="4"/>
       <c r="C405" s="4"/>
@@ -7148,7 +6683,7 @@
       <c r="H405" s="4"/>
       <c r="I405" s="4"/>
     </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A406" s="4"/>
       <c r="B406" s="4"/>
       <c r="C406" s="4"/>
@@ -7159,7 +6694,7 @@
       <c r="H406" s="4"/>
       <c r="I406" s="4"/>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A407" s="4"/>
       <c r="B407" s="4"/>
       <c r="C407" s="4"/>
@@ -7170,7 +6705,7 @@
       <c r="H407" s="4"/>
       <c r="I407" s="4"/>
     </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A408" s="4"/>
       <c r="B408" s="4"/>
       <c r="C408" s="4"/>
@@ -7181,7 +6716,7 @@
       <c r="H408" s="4"/>
       <c r="I408" s="4"/>
     </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A409" s="4"/>
       <c r="B409" s="4"/>
       <c r="C409" s="4"/>
@@ -7192,7 +6727,7 @@
       <c r="H409" s="4"/>
       <c r="I409" s="4"/>
     </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A410" s="4"/>
       <c r="B410" s="4"/>
       <c r="C410" s="4"/>
@@ -7203,7 +6738,7 @@
       <c r="H410" s="4"/>
       <c r="I410" s="4"/>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A411" s="4"/>
       <c r="B411" s="4"/>
       <c r="C411" s="4"/>
@@ -7214,7 +6749,7 @@
       <c r="H411" s="4"/>
       <c r="I411" s="4"/>
     </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A412" s="4"/>
       <c r="B412" s="4"/>
       <c r="C412" s="4"/>
@@ -7225,7 +6760,7 @@
       <c r="H412" s="4"/>
       <c r="I412" s="4"/>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A413" s="4"/>
       <c r="B413" s="4"/>
       <c r="C413" s="4"/>
@@ -7236,7 +6771,7 @@
       <c r="H413" s="4"/>
       <c r="I413" s="4"/>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A414" s="4"/>
       <c r="B414" s="4"/>
       <c r="C414" s="4"/>
@@ -7247,7 +6782,7 @@
       <c r="H414" s="4"/>
       <c r="I414" s="4"/>
     </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A415" s="4"/>
       <c r="B415" s="4"/>
       <c r="C415" s="4"/>
@@ -7258,7 +6793,7 @@
       <c r="H415" s="4"/>
       <c r="I415" s="4"/>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A416" s="4"/>
       <c r="B416" s="4"/>
       <c r="C416" s="4"/>
@@ -7269,7 +6804,7 @@
       <c r="H416" s="4"/>
       <c r="I416" s="4"/>
     </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A417" s="4"/>
       <c r="B417" s="4"/>
       <c r="C417" s="4"/>
@@ -7280,7 +6815,7 @@
       <c r="H417" s="4"/>
       <c r="I417" s="4"/>
     </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A418" s="4"/>
       <c r="B418" s="4"/>
       <c r="C418" s="4"/>
@@ -7291,7 +6826,7 @@
       <c r="H418" s="4"/>
       <c r="I418" s="4"/>
     </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A419" s="4"/>
       <c r="B419" s="4"/>
       <c r="C419" s="4"/>
@@ -7302,7 +6837,7 @@
       <c r="H419" s="4"/>
       <c r="I419" s="4"/>
     </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A420" s="4"/>
       <c r="B420" s="4"/>
       <c r="C420" s="4"/>
@@ -7313,7 +6848,7 @@
       <c r="H420" s="4"/>
       <c r="I420" s="4"/>
     </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A421" s="4"/>
       <c r="B421" s="4"/>
       <c r="C421" s="4"/>
@@ -7324,7 +6859,7 @@
       <c r="H421" s="4"/>
       <c r="I421" s="4"/>
     </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A422" s="4"/>
       <c r="B422" s="4"/>
       <c r="C422" s="4"/>
@@ -7335,7 +6870,7 @@
       <c r="H422" s="4"/>
       <c r="I422" s="4"/>
     </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A423" s="4"/>
       <c r="B423" s="4"/>
       <c r="C423" s="4"/>
@@ -7346,7 +6881,7 @@
       <c r="H423" s="4"/>
       <c r="I423" s="4"/>
     </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A424" s="4"/>
       <c r="B424" s="4"/>
       <c r="C424" s="4"/>
@@ -7357,7 +6892,7 @@
       <c r="H424" s="4"/>
       <c r="I424" s="4"/>
     </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A425" s="4"/>
       <c r="B425" s="4"/>
       <c r="C425" s="4"/>
@@ -7368,7 +6903,7 @@
       <c r="H425" s="4"/>
       <c r="I425" s="4"/>
     </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A426" s="4"/>
       <c r="B426" s="4"/>
       <c r="C426" s="4"/>
@@ -7379,7 +6914,7 @@
       <c r="H426" s="4"/>
       <c r="I426" s="4"/>
     </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A427" s="4"/>
       <c r="B427" s="4"/>
       <c r="C427" s="4"/>
@@ -7390,7 +6925,7 @@
       <c r="H427" s="4"/>
       <c r="I427" s="4"/>
     </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A428" s="4"/>
       <c r="B428" s="4"/>
       <c r="C428" s="4"/>
@@ -7401,7 +6936,7 @@
       <c r="H428" s="4"/>
       <c r="I428" s="4"/>
     </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A429" s="4"/>
       <c r="B429" s="4"/>
       <c r="C429" s="4"/>
@@ -7412,7 +6947,7 @@
       <c r="H429" s="4"/>
       <c r="I429" s="4"/>
     </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A430" s="4"/>
       <c r="B430" s="4"/>
       <c r="C430" s="4"/>
@@ -7423,7 +6958,7 @@
       <c r="H430" s="4"/>
       <c r="I430" s="4"/>
     </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A431" s="4"/>
       <c r="B431" s="4"/>
       <c r="C431" s="4"/>
@@ -7434,7 +6969,7 @@
       <c r="H431" s="4"/>
       <c r="I431" s="4"/>
     </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A432" s="4"/>
       <c r="B432" s="4"/>
       <c r="C432" s="4"/>
@@ -7445,7 +6980,7 @@
       <c r="H432" s="4"/>
       <c r="I432" s="4"/>
     </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A433" s="4"/>
       <c r="B433" s="4"/>
       <c r="C433" s="4"/>
@@ -7456,7 +6991,7 @@
       <c r="H433" s="4"/>
       <c r="I433" s="4"/>
     </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A434" s="4"/>
       <c r="B434" s="4"/>
       <c r="C434" s="4"/>
@@ -7467,7 +7002,7 @@
       <c r="H434" s="4"/>
       <c r="I434" s="4"/>
     </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A435" s="4"/>
       <c r="B435" s="4"/>
       <c r="C435" s="4"/>
@@ -7478,7 +7013,7 @@
       <c r="H435" s="4"/>
       <c r="I435" s="4"/>
     </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A436" s="4"/>
       <c r="B436" s="4"/>
       <c r="C436" s="4"/>
@@ -7489,7 +7024,7 @@
       <c r="H436" s="4"/>
       <c r="I436" s="4"/>
     </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A437" s="4"/>
       <c r="B437" s="4"/>
       <c r="C437" s="4"/>
@@ -7500,7 +7035,7 @@
       <c r="H437" s="4"/>
       <c r="I437" s="4"/>
     </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A438" s="4"/>
       <c r="B438" s="4"/>
       <c r="C438" s="4"/>
@@ -7511,7 +7046,7 @@
       <c r="H438" s="4"/>
       <c r="I438" s="4"/>
     </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A439" s="4"/>
       <c r="B439" s="4"/>
       <c r="C439" s="4"/>
@@ -7522,7 +7057,7 @@
       <c r="H439" s="4"/>
       <c r="I439" s="4"/>
     </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A440" s="4"/>
       <c r="B440" s="4"/>
       <c r="C440" s="4"/>
@@ -7533,7 +7068,7 @@
       <c r="H440" s="4"/>
       <c r="I440" s="4"/>
     </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A441" s="4"/>
       <c r="B441" s="4"/>
       <c r="C441" s="4"/>
@@ -7544,7 +7079,7 @@
       <c r="H441" s="4"/>
       <c r="I441" s="4"/>
     </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A442" s="4"/>
       <c r="B442" s="4"/>
       <c r="C442" s="4"/>
@@ -7555,7 +7090,7 @@
       <c r="H442" s="4"/>
       <c r="I442" s="4"/>
     </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A443" s="4"/>
       <c r="B443" s="4"/>
       <c r="C443" s="4"/>
@@ -7566,7 +7101,7 @@
       <c r="H443" s="4"/>
       <c r="I443" s="4"/>
     </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A444" s="4"/>
       <c r="B444" s="4"/>
       <c r="C444" s="4"/>
@@ -7577,7 +7112,7 @@
       <c r="H444" s="4"/>
       <c r="I444" s="4"/>
     </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A445" s="4"/>
       <c r="B445" s="4"/>
       <c r="C445" s="4"/>
@@ -7588,7 +7123,7 @@
       <c r="H445" s="4"/>
       <c r="I445" s="4"/>
     </row>
-    <row r="446" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A446" s="4"/>
       <c r="B446" s="4"/>
       <c r="C446" s="4"/>
@@ -7599,7 +7134,7 @@
       <c r="H446" s="4"/>
       <c r="I446" s="4"/>
     </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A447" s="4"/>
       <c r="B447" s="4"/>
       <c r="C447" s="4"/>
@@ -7610,7 +7145,7 @@
       <c r="H447" s="4"/>
       <c r="I447" s="4"/>
     </row>
-    <row r="448" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A448" s="4"/>
       <c r="B448" s="4"/>
       <c r="C448" s="4"/>
@@ -7621,7 +7156,7 @@
       <c r="H448" s="4"/>
       <c r="I448" s="4"/>
     </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A449" s="4"/>
       <c r="B449" s="4"/>
       <c r="C449" s="4"/>
@@ -7632,7 +7167,7 @@
       <c r="H449" s="4"/>
       <c r="I449" s="4"/>
     </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A450" s="4"/>
       <c r="B450" s="4"/>
       <c r="C450" s="4"/>
@@ -7643,7 +7178,7 @@
       <c r="H450" s="4"/>
       <c r="I450" s="4"/>
     </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A451" s="4"/>
       <c r="B451" s="4"/>
       <c r="C451" s="4"/>
@@ -7654,7 +7189,7 @@
       <c r="H451" s="4"/>
       <c r="I451" s="4"/>
     </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A452" s="4"/>
       <c r="B452" s="4"/>
       <c r="C452" s="4"/>
@@ -7665,7 +7200,7 @@
       <c r="H452" s="4"/>
       <c r="I452" s="4"/>
     </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A453" s="4"/>
       <c r="B453" s="4"/>
       <c r="C453" s="4"/>
@@ -7676,7 +7211,7 @@
       <c r="H453" s="4"/>
       <c r="I453" s="4"/>
     </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A454" s="4"/>
       <c r="B454" s="4"/>
       <c r="C454" s="4"/>
@@ -7687,7 +7222,7 @@
       <c r="H454" s="4"/>
       <c r="I454" s="4"/>
     </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A455" s="4"/>
       <c r="B455" s="4"/>
       <c r="C455" s="4"/>
@@ -7698,7 +7233,7 @@
       <c r="H455" s="4"/>
       <c r="I455" s="4"/>
     </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A456" s="4"/>
       <c r="B456" s="4"/>
       <c r="C456" s="4"/>
@@ -7709,7 +7244,7 @@
       <c r="H456" s="4"/>
       <c r="I456" s="4"/>
     </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A457" s="4"/>
       <c r="B457" s="4"/>
       <c r="C457" s="4"/>
@@ -7720,7 +7255,7 @@
       <c r="H457" s="4"/>
       <c r="I457" s="4"/>
     </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A458" s="4"/>
       <c r="B458" s="4"/>
       <c r="C458" s="4"/>
@@ -7731,7 +7266,7 @@
       <c r="H458" s="4"/>
       <c r="I458" s="4"/>
     </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A459" s="4"/>
       <c r="B459" s="4"/>
       <c r="C459" s="4"/>
@@ -7742,7 +7277,7 @@
       <c r="H459" s="4"/>
       <c r="I459" s="4"/>
     </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A460" s="4"/>
       <c r="B460" s="4"/>
       <c r="C460" s="4"/>
@@ -7753,7 +7288,7 @@
       <c r="H460" s="4"/>
       <c r="I460" s="4"/>
     </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A461" s="4"/>
       <c r="B461" s="4"/>
       <c r="C461" s="4"/>
@@ -7764,7 +7299,7 @@
       <c r="H461" s="4"/>
       <c r="I461" s="4"/>
     </row>
-    <row r="462" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A462" s="4"/>
       <c r="B462" s="4"/>
       <c r="C462" s="4"/>
@@ -7775,7 +7310,7 @@
       <c r="H462" s="4"/>
       <c r="I462" s="4"/>
     </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A463" s="4"/>
       <c r="B463" s="4"/>
       <c r="C463" s="4"/>
@@ -7786,7 +7321,7 @@
       <c r="H463" s="4"/>
       <c r="I463" s="4"/>
     </row>
-    <row r="464" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A464" s="4"/>
       <c r="B464" s="4"/>
       <c r="C464" s="4"/>
@@ -7797,7 +7332,7 @@
       <c r="H464" s="4"/>
       <c r="I464" s="4"/>
     </row>
-    <row r="465" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A465" s="4"/>
       <c r="B465" s="4"/>
       <c r="C465" s="4"/>
@@ -7808,7 +7343,7 @@
       <c r="H465" s="4"/>
       <c r="I465" s="4"/>
     </row>
-    <row r="466" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A466" s="4"/>
       <c r="B466" s="4"/>
       <c r="C466" s="4"/>
@@ -7819,7 +7354,7 @@
       <c r="H466" s="4"/>
       <c r="I466" s="4"/>
     </row>
-    <row r="467" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A467" s="4"/>
       <c r="B467" s="4"/>
       <c r="C467" s="4"/>
@@ -7830,7 +7365,7 @@
       <c r="H467" s="4"/>
       <c r="I467" s="4"/>
     </row>
-    <row r="468" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A468" s="4"/>
       <c r="B468" s="4"/>
       <c r="C468" s="4"/>
@@ -7841,7 +7376,7 @@
       <c r="H468" s="4"/>
       <c r="I468" s="4"/>
     </row>
-    <row r="469" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A469" s="4"/>
       <c r="B469" s="4"/>
       <c r="C469" s="4"/>
@@ -7852,7 +7387,7 @@
       <c r="H469" s="4"/>
       <c r="I469" s="4"/>
     </row>
-    <row r="470" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A470" s="4"/>
       <c r="B470" s="4"/>
       <c r="C470" s="4"/>
@@ -7863,7 +7398,7 @@
       <c r="H470" s="4"/>
       <c r="I470" s="4"/>
     </row>
-    <row r="471" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A471" s="4"/>
       <c r="B471" s="4"/>
       <c r="C471" s="4"/>
@@ -7874,7 +7409,7 @@
       <c r="H471" s="4"/>
       <c r="I471" s="4"/>
     </row>
-    <row r="472" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A472" s="4"/>
       <c r="B472" s="4"/>
       <c r="C472" s="4"/>
@@ -7885,7 +7420,7 @@
       <c r="H472" s="4"/>
       <c r="I472" s="4"/>
     </row>
-    <row r="473" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A473" s="4"/>
       <c r="B473" s="4"/>
       <c r="C473" s="4"/>
@@ -7896,7 +7431,7 @@
       <c r="H473" s="4"/>
       <c r="I473" s="4"/>
     </row>
-    <row r="474" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A474" s="4"/>
       <c r="B474" s="4"/>
       <c r="C474" s="4"/>
@@ -7907,7 +7442,7 @@
       <c r="H474" s="4"/>
       <c r="I474" s="4"/>
     </row>
-    <row r="475" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A475" s="4"/>
       <c r="B475" s="4"/>
       <c r="C475" s="4"/>
@@ -7918,7 +7453,7 @@
       <c r="H475" s="4"/>
       <c r="I475" s="4"/>
     </row>
-    <row r="476" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A476" s="4"/>
       <c r="B476" s="4"/>
       <c r="C476" s="4"/>
@@ -7929,7 +7464,7 @@
       <c r="H476" s="4"/>
       <c r="I476" s="4"/>
     </row>
-    <row r="477" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A477" s="4"/>
       <c r="B477" s="4"/>
       <c r="C477" s="4"/>
@@ -7940,7 +7475,7 @@
       <c r="H477" s="4"/>
       <c r="I477" s="4"/>
     </row>
-    <row r="478" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A478" s="4"/>
       <c r="B478" s="4"/>
       <c r="C478" s="4"/>
@@ -7951,7 +7486,7 @@
       <c r="H478" s="4"/>
       <c r="I478" s="4"/>
     </row>
-    <row r="479" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A479" s="4"/>
       <c r="B479" s="4"/>
       <c r="C479" s="4"/>
@@ -7962,7 +7497,7 @@
       <c r="H479" s="4"/>
       <c r="I479" s="4"/>
     </row>
-    <row r="480" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A480" s="4"/>
       <c r="B480" s="4"/>
       <c r="C480" s="4"/>
@@ -7973,7 +7508,7 @@
       <c r="H480" s="4"/>
       <c r="I480" s="4"/>
     </row>
-    <row r="481" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A481" s="4"/>
       <c r="B481" s="4"/>
       <c r="C481" s="4"/>
@@ -7984,7 +7519,7 @@
       <c r="H481" s="4"/>
       <c r="I481" s="4"/>
     </row>
-    <row r="482" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A482" s="4"/>
       <c r="B482" s="4"/>
       <c r="C482" s="4"/>
@@ -7995,7 +7530,7 @@
       <c r="H482" s="4"/>
       <c r="I482" s="4"/>
     </row>
-    <row r="483" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A483" s="4"/>
       <c r="B483" s="4"/>
       <c r="C483" s="4"/>
@@ -8006,7 +7541,7 @@
       <c r="H483" s="4"/>
       <c r="I483" s="4"/>
     </row>
-    <row r="484" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A484" s="4"/>
       <c r="B484" s="4"/>
       <c r="C484" s="4"/>
@@ -8017,7 +7552,7 @@
       <c r="H484" s="4"/>
       <c r="I484" s="4"/>
     </row>
-    <row r="485" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A485" s="4"/>
       <c r="B485" s="4"/>
       <c r="C485" s="4"/>
@@ -8028,7 +7563,7 @@
       <c r="H485" s="4"/>
       <c r="I485" s="4"/>
     </row>
-    <row r="486" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A486" s="4"/>
       <c r="B486" s="4"/>
       <c r="C486" s="4"/>
@@ -8039,7 +7574,7 @@
       <c r="H486" s="4"/>
       <c r="I486" s="4"/>
     </row>
-    <row r="487" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A487" s="4"/>
       <c r="B487" s="4"/>
       <c r="C487" s="4"/>
@@ -8050,7 +7585,7 @@
       <c r="H487" s="4"/>
       <c r="I487" s="4"/>
     </row>
-    <row r="488" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A488" s="4"/>
       <c r="B488" s="4"/>
       <c r="C488" s="4"/>
@@ -8061,7 +7596,7 @@
       <c r="H488" s="4"/>
       <c r="I488" s="4"/>
     </row>
-    <row r="489" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A489" s="4"/>
       <c r="B489" s="4"/>
       <c r="C489" s="4"/>
@@ -8072,7 +7607,7 @@
       <c r="H489" s="4"/>
       <c r="I489" s="4"/>
     </row>
-    <row r="490" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A490" s="4"/>
       <c r="B490" s="4"/>
       <c r="C490" s="4"/>
@@ -8083,7 +7618,7 @@
       <c r="H490" s="4"/>
       <c r="I490" s="4"/>
     </row>
-    <row r="491" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A491" s="4"/>
       <c r="B491" s="4"/>
       <c r="C491" s="4"/>
@@ -8094,7 +7629,7 @@
       <c r="H491" s="4"/>
       <c r="I491" s="4"/>
     </row>
-    <row r="492" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A492" s="4"/>
       <c r="B492" s="4"/>
       <c r="C492" s="4"/>
@@ -8105,7 +7640,7 @@
       <c r="H492" s="4"/>
       <c r="I492" s="4"/>
     </row>
-    <row r="493" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A493" s="4"/>
       <c r="B493" s="4"/>
       <c r="C493" s="4"/>
@@ -8116,7 +7651,7 @@
       <c r="H493" s="4"/>
       <c r="I493" s="4"/>
     </row>
-    <row r="494" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A494" s="4"/>
       <c r="B494" s="4"/>
       <c r="C494" s="4"/>
@@ -8127,7 +7662,7 @@
       <c r="H494" s="4"/>
       <c r="I494" s="4"/>
     </row>
-    <row r="495" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A495" s="4"/>
       <c r="B495" s="4"/>
       <c r="C495" s="4"/>
@@ -8138,7 +7673,7 @@
       <c r="H495" s="4"/>
       <c r="I495" s="4"/>
     </row>
-    <row r="496" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A496" s="4"/>
       <c r="B496" s="4"/>
       <c r="C496" s="4"/>
@@ -8149,7 +7684,7 @@
       <c r="H496" s="4"/>
       <c r="I496" s="4"/>
     </row>
-    <row r="497" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A497" s="4"/>
       <c r="B497" s="4"/>
       <c r="C497" s="4"/>
@@ -8160,7 +7695,7 @@
       <c r="H497" s="4"/>
       <c r="I497" s="4"/>
     </row>
-    <row r="498" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A498" s="4"/>
       <c r="B498" s="4"/>
       <c r="C498" s="4"/>
@@ -8171,7 +7706,7 @@
       <c r="H498" s="4"/>
       <c r="I498" s="4"/>
     </row>
-    <row r="499" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A499" s="4"/>
       <c r="B499" s="4"/>
       <c r="C499" s="4"/>
@@ -8182,7 +7717,7 @@
       <c r="H499" s="4"/>
       <c r="I499" s="4"/>
     </row>
-    <row r="500" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A500" s="4"/>
       <c r="B500" s="4"/>
       <c r="C500" s="4"/>
@@ -8222,7 +7757,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -8233,45 +7768,45 @@
       <selection activeCell="A7" sqref="A3:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.109375" style="10" customWidth="1"/>
-    <col min="2" max="6" width="25.109375" style="10" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" style="6" customWidth="1"/>
+    <col min="2" max="6" width="25.140625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+    </row>
+    <row r="2" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-    </row>
-    <row r="2" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="22.8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:6" ht="24" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -8279,9 +7814,9 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="24" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -8289,9 +7824,9 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="24" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -8299,9 +7834,9 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="24" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -8309,9 +7844,9 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="24" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -8332,7 +7867,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -8343,56 +7878,56 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34" style="10" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="28.88671875" style="10" customWidth="1"/>
-    <col min="4" max="4" width="56" style="10" customWidth="1"/>
-    <col min="5" max="5" width="26.33203125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="34" style="6" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="56" style="6" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+    </row>
+    <row r="2" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-    </row>
-    <row r="2" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>74</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -8406,7 +7941,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -8417,26 +7952,26 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" style="10"/>
-    <col min="2" max="2" width="43.6640625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" style="6"/>
+    <col min="2" max="2" width="43.7109375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
